--- a/Hackathon_1.3.xlsx
+++ b/Hackathon_1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ioannisglykos/Desktop/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2535C9-D8E1-5E4E-AA28-7A25CD417373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE8FDAA-EF3C-AE48-9779-711E4BE412C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{726248AC-2AAC-9D4B-95FF-915CF285FBB8}"/>
   </bookViews>
@@ -1771,7 +1771,7 @@
   <dimension ref="A2:N1048"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1826,8 +1826,14 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G29" si="0">IF(F3="","",INDEX($G$49:$G$1048, MATCH(F3,$F$49:$F$1048)))</f>
+        <v/>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f t="shared" ref="H3:H29" si="1">IF(G3="","",INDEX($L$48:$L$54, MATCH(G3,$K$48:$K$54)))</f>
+        <v/>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="b">
         <f>IFERROR(IF(G3=1, VLOOKUP(I3,PONE[], 2, FALSE), IF(G3=2, VLOOKUP(I3, PTWO[], 2, FALSE), IF(G3=3, VLOOKUP(I3,PTHREE[], 2, FALSE), IF(G3=4, VLOOKUP(I3, PFOUR[], 2, FALSE), IF(G3=5,VLOOKUP(I3, PFIVE[],2,FALSE), IF(G3=6, VLOOKUP(I3, PSIX[],2,FALSE), IF(G3=7, VLOOKUP(I3,PSEVEN[],2,FALSE)))))))), "DAYS NOT AVAILABLE")</f>
@@ -1842,11 +1848,11 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="str">
-        <f t="shared" ref="G3:G29" si="0">IF(F4="","",INDEX($G$49:$G$1048, MATCH(F4,$F$49:$F$1048)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H4" s="7" t="str">
-        <f t="shared" ref="H3:H29" si="1">IF(G4="","",INDEX($L$48:$L$54, MATCH(G4,$K$48:$K$54)))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I4" s="7"/>
@@ -2415,7 +2421,7 @@
       </c>
       <c r="N49">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
@@ -2445,7 +2451,7 @@
       </c>
       <c r="N50">
         <f t="shared" ref="N50:N113" ca="1" si="2">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
@@ -2505,7 +2511,7 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
@@ -2565,7 +2571,7 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="17" x14ac:dyDescent="0.2">
@@ -2589,7 +2595,7 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
@@ -2613,7 +2619,7 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
@@ -2637,7 +2643,7 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.2">
@@ -2661,7 +2667,7 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
@@ -2727,7 +2733,7 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
@@ -2745,7 +2751,7 @@
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
@@ -2763,7 +2769,7 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
@@ -2817,7 +2823,7 @@
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.2">
@@ -2853,7 +2859,7 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.2">
@@ -2871,7 +2877,7 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.2">
@@ -2889,7 +2895,7 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="3:14" x14ac:dyDescent="0.2">
@@ -2904,7 +2910,7 @@
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="3:14" x14ac:dyDescent="0.2">
@@ -2919,7 +2925,7 @@
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="3:14" x14ac:dyDescent="0.2">
@@ -2934,7 +2940,7 @@
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="3:14" x14ac:dyDescent="0.2">
@@ -2949,7 +2955,7 @@
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="3:14" x14ac:dyDescent="0.2">
@@ -2964,7 +2970,7 @@
       </c>
       <c r="N75">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.2">
@@ -2979,7 +2985,7 @@
       </c>
       <c r="N76">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.2">
@@ -2994,7 +3000,7 @@
       </c>
       <c r="N77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.2">
@@ -3009,7 +3015,7 @@
       </c>
       <c r="N78">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.2">
@@ -3039,7 +3045,7 @@
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="5:14" x14ac:dyDescent="0.2">
@@ -3054,7 +3060,7 @@
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="5:14" x14ac:dyDescent="0.2">
@@ -3069,7 +3075,7 @@
       </c>
       <c r="N82">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="5:14" x14ac:dyDescent="0.2">
@@ -3084,7 +3090,7 @@
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="5:14" x14ac:dyDescent="0.2">
@@ -3099,7 +3105,7 @@
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="5:14" x14ac:dyDescent="0.2">
@@ -3114,7 +3120,7 @@
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="5:14" x14ac:dyDescent="0.2">
@@ -3129,7 +3135,7 @@
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="5:14" x14ac:dyDescent="0.2">
@@ -3144,7 +3150,7 @@
       </c>
       <c r="N87">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="5:14" x14ac:dyDescent="0.2">
@@ -3159,7 +3165,7 @@
       </c>
       <c r="N88">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="5:14" x14ac:dyDescent="0.2">
@@ -3174,7 +3180,7 @@
       </c>
       <c r="N89">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="5:14" x14ac:dyDescent="0.2">
@@ -3189,7 +3195,7 @@
       </c>
       <c r="N90">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="5:14" x14ac:dyDescent="0.2">
@@ -3204,7 +3210,7 @@
       </c>
       <c r="N91">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="5:14" x14ac:dyDescent="0.2">
@@ -3219,7 +3225,7 @@
       </c>
       <c r="N92">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="5:14" x14ac:dyDescent="0.2">
@@ -3249,7 +3255,7 @@
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="5:14" x14ac:dyDescent="0.2">
@@ -3264,7 +3270,7 @@
       </c>
       <c r="N95">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="5:14" x14ac:dyDescent="0.2">
@@ -3279,7 +3285,7 @@
       </c>
       <c r="N96">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="5:14" x14ac:dyDescent="0.2">
@@ -3294,7 +3300,7 @@
       </c>
       <c r="N97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="5:14" x14ac:dyDescent="0.2">
@@ -3309,7 +3315,7 @@
       </c>
       <c r="N98">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="5:14" x14ac:dyDescent="0.2">
@@ -3324,7 +3330,7 @@
       </c>
       <c r="N99">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="5:14" x14ac:dyDescent="0.2">
@@ -3354,7 +3360,7 @@
       </c>
       <c r="N101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="5:14" x14ac:dyDescent="0.2">
@@ -3369,7 +3375,7 @@
       </c>
       <c r="N102">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="5:14" x14ac:dyDescent="0.2">
@@ -3384,7 +3390,7 @@
       </c>
       <c r="N103">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="5:14" x14ac:dyDescent="0.2">
@@ -3399,7 +3405,7 @@
       </c>
       <c r="N104">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="5:14" x14ac:dyDescent="0.2">
@@ -3414,7 +3420,7 @@
       </c>
       <c r="N105">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="5:14" x14ac:dyDescent="0.2">
@@ -3429,7 +3435,7 @@
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="5:14" x14ac:dyDescent="0.2">
@@ -3444,7 +3450,7 @@
       </c>
       <c r="N107">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="5:14" x14ac:dyDescent="0.2">
@@ -3459,7 +3465,7 @@
       </c>
       <c r="N108">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="5:14" x14ac:dyDescent="0.2">
@@ -3474,7 +3480,7 @@
       </c>
       <c r="N109">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="5:14" x14ac:dyDescent="0.2">
@@ -3489,7 +3495,7 @@
       </c>
       <c r="N110">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="5:14" x14ac:dyDescent="0.2">
@@ -3504,7 +3510,7 @@
       </c>
       <c r="N111">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="5:14" x14ac:dyDescent="0.2">
@@ -3519,7 +3525,7 @@
       </c>
       <c r="N112">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="5:14" x14ac:dyDescent="0.2">
@@ -3534,7 +3540,7 @@
       </c>
       <c r="N113">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="5:14" x14ac:dyDescent="0.2">
@@ -3549,7 +3555,7 @@
       </c>
       <c r="N114">
         <f t="shared" ref="N114:N177" ca="1" si="3">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="5:14" x14ac:dyDescent="0.2">
@@ -3579,7 +3585,7 @@
       </c>
       <c r="N116">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="5:14" x14ac:dyDescent="0.2">
@@ -3594,7 +3600,7 @@
       </c>
       <c r="N117">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="5:14" x14ac:dyDescent="0.2">
@@ -3609,7 +3615,7 @@
       </c>
       <c r="N118">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="5:14" x14ac:dyDescent="0.2">
@@ -3639,7 +3645,7 @@
       </c>
       <c r="N120">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="5:14" x14ac:dyDescent="0.2">
@@ -3654,7 +3660,7 @@
       </c>
       <c r="N121">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="5:14" x14ac:dyDescent="0.2">
@@ -3669,7 +3675,7 @@
       </c>
       <c r="N122">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="5:14" x14ac:dyDescent="0.2">
@@ -3684,7 +3690,7 @@
       </c>
       <c r="N123">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="5:14" x14ac:dyDescent="0.2">
@@ -3699,7 +3705,7 @@
       </c>
       <c r="N124">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="5:14" x14ac:dyDescent="0.2">
@@ -3729,7 +3735,7 @@
       </c>
       <c r="N126">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="5:14" x14ac:dyDescent="0.2">
@@ -3744,7 +3750,7 @@
       </c>
       <c r="N127">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="5:14" x14ac:dyDescent="0.2">
@@ -3759,7 +3765,7 @@
       </c>
       <c r="N128">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="5:14" x14ac:dyDescent="0.2">
@@ -3774,7 +3780,7 @@
       </c>
       <c r="N129">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="5:14" x14ac:dyDescent="0.2">
@@ -3789,7 +3795,7 @@
       </c>
       <c r="N130">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="5:14" x14ac:dyDescent="0.2">
@@ -3804,7 +3810,7 @@
       </c>
       <c r="N131">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="5:14" x14ac:dyDescent="0.2">
@@ -3819,7 +3825,7 @@
       </c>
       <c r="N132">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="5:14" x14ac:dyDescent="0.2">
@@ -3834,7 +3840,7 @@
       </c>
       <c r="N133">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="5:14" x14ac:dyDescent="0.2">
@@ -3849,7 +3855,7 @@
       </c>
       <c r="N134">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="5:14" x14ac:dyDescent="0.2">
@@ -3864,7 +3870,7 @@
       </c>
       <c r="N135">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="5:14" x14ac:dyDescent="0.2">
@@ -3876,7 +3882,7 @@
       </c>
       <c r="N136">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="5:14" x14ac:dyDescent="0.2">
@@ -3888,7 +3894,7 @@
       </c>
       <c r="N137">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="5:14" x14ac:dyDescent="0.2">
@@ -3900,7 +3906,7 @@
       </c>
       <c r="N138">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="5:14" x14ac:dyDescent="0.2">
@@ -3912,7 +3918,7 @@
       </c>
       <c r="N139">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="5:14" x14ac:dyDescent="0.2">
@@ -3936,7 +3942,7 @@
       </c>
       <c r="N141">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="5:14" x14ac:dyDescent="0.2">
@@ -3948,7 +3954,7 @@
       </c>
       <c r="N142">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="5:14" x14ac:dyDescent="0.2">
@@ -3972,7 +3978,7 @@
       </c>
       <c r="N144">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="6:14" x14ac:dyDescent="0.2">
@@ -3984,7 +3990,7 @@
       </c>
       <c r="N145">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="6:14" x14ac:dyDescent="0.2">
@@ -4020,7 +4026,7 @@
       </c>
       <c r="N148">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="6:14" x14ac:dyDescent="0.2">
@@ -4032,7 +4038,7 @@
       </c>
       <c r="N149">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="6:14" x14ac:dyDescent="0.2">
@@ -4056,7 +4062,7 @@
       </c>
       <c r="N151">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="6:14" x14ac:dyDescent="0.2">
@@ -4080,7 +4086,7 @@
       </c>
       <c r="N153">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="6:14" x14ac:dyDescent="0.2">
@@ -4092,7 +4098,7 @@
       </c>
       <c r="N154">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="6:14" x14ac:dyDescent="0.2">
@@ -4104,7 +4110,7 @@
       </c>
       <c r="N155">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="6:14" x14ac:dyDescent="0.2">
@@ -4116,7 +4122,7 @@
       </c>
       <c r="N156">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="6:14" x14ac:dyDescent="0.2">
@@ -4128,7 +4134,7 @@
       </c>
       <c r="N157">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="6:14" x14ac:dyDescent="0.2">
@@ -4140,7 +4146,7 @@
       </c>
       <c r="N158">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="6:14" x14ac:dyDescent="0.2">
@@ -4152,7 +4158,7 @@
       </c>
       <c r="N159">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="6:14" x14ac:dyDescent="0.2">
@@ -4164,7 +4170,7 @@
       </c>
       <c r="N160">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="6:14" x14ac:dyDescent="0.2">
@@ -4176,7 +4182,7 @@
       </c>
       <c r="N161">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="6:14" x14ac:dyDescent="0.2">
@@ -4188,7 +4194,7 @@
       </c>
       <c r="N162">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="6:14" x14ac:dyDescent="0.2">
@@ -4212,7 +4218,7 @@
       </c>
       <c r="N164">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="6:14" x14ac:dyDescent="0.2">
@@ -4224,7 +4230,7 @@
       </c>
       <c r="N165">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="6:14" x14ac:dyDescent="0.2">
@@ -4236,7 +4242,7 @@
       </c>
       <c r="N166">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="6:14" x14ac:dyDescent="0.2">
@@ -4260,7 +4266,7 @@
       </c>
       <c r="N168">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="6:14" x14ac:dyDescent="0.2">
@@ -4272,7 +4278,7 @@
       </c>
       <c r="N169">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="6:14" x14ac:dyDescent="0.2">
@@ -4284,7 +4290,7 @@
       </c>
       <c r="N170">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="6:14" x14ac:dyDescent="0.2">
@@ -4296,7 +4302,7 @@
       </c>
       <c r="N171">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="6:14" x14ac:dyDescent="0.2">
@@ -4308,7 +4314,7 @@
       </c>
       <c r="N172">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="6:14" x14ac:dyDescent="0.2">
@@ -4320,7 +4326,7 @@
       </c>
       <c r="N173">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="6:14" x14ac:dyDescent="0.2">
@@ -4332,7 +4338,7 @@
       </c>
       <c r="N174">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="6:14" x14ac:dyDescent="0.2">
@@ -4344,7 +4350,7 @@
       </c>
       <c r="N175">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="6:14" x14ac:dyDescent="0.2">
@@ -4356,7 +4362,7 @@
       </c>
       <c r="N176">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="6:14" x14ac:dyDescent="0.2">
@@ -4380,7 +4386,7 @@
       </c>
       <c r="N178">
         <f t="shared" ref="N178:N241" ca="1" si="4">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="6:14" x14ac:dyDescent="0.2">
@@ -4392,7 +4398,7 @@
       </c>
       <c r="N179">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="6:14" x14ac:dyDescent="0.2">
@@ -4404,7 +4410,7 @@
       </c>
       <c r="N180">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="6:14" x14ac:dyDescent="0.2">
@@ -4416,7 +4422,7 @@
       </c>
       <c r="N181">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="6:14" x14ac:dyDescent="0.2">
@@ -4428,7 +4434,7 @@
       </c>
       <c r="N182">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="6:14" x14ac:dyDescent="0.2">
@@ -4440,7 +4446,7 @@
       </c>
       <c r="N183">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="6:14" x14ac:dyDescent="0.2">
@@ -4464,7 +4470,7 @@
       </c>
       <c r="N185">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="6:14" x14ac:dyDescent="0.2">
@@ -4476,7 +4482,7 @@
       </c>
       <c r="N186">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="6:14" x14ac:dyDescent="0.2">
@@ -4488,7 +4494,7 @@
       </c>
       <c r="N187">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="6:14" x14ac:dyDescent="0.2">
@@ -4512,7 +4518,7 @@
       </c>
       <c r="N189">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="6:14" x14ac:dyDescent="0.2">
@@ -4524,7 +4530,7 @@
       </c>
       <c r="N190">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="6:14" x14ac:dyDescent="0.2">
@@ -4548,7 +4554,7 @@
       </c>
       <c r="N192">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="6:14" x14ac:dyDescent="0.2">
@@ -4560,7 +4566,7 @@
       </c>
       <c r="N193">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="6:14" x14ac:dyDescent="0.2">
@@ -4572,7 +4578,7 @@
       </c>
       <c r="N194">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="6:14" x14ac:dyDescent="0.2">
@@ -4584,7 +4590,7 @@
       </c>
       <c r="N195">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="6:14" x14ac:dyDescent="0.2">
@@ -4608,7 +4614,7 @@
       </c>
       <c r="N197">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="6:14" x14ac:dyDescent="0.2">
@@ -4620,7 +4626,7 @@
       </c>
       <c r="N198">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="6:14" x14ac:dyDescent="0.2">
@@ -4632,7 +4638,7 @@
       </c>
       <c r="N199">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="6:14" x14ac:dyDescent="0.2">
@@ -4644,7 +4650,7 @@
       </c>
       <c r="N200">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="6:14" x14ac:dyDescent="0.2">
@@ -4656,7 +4662,7 @@
       </c>
       <c r="N201">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="6:14" x14ac:dyDescent="0.2">
@@ -4668,7 +4674,7 @@
       </c>
       <c r="N202">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="6:14" x14ac:dyDescent="0.2">
@@ -4680,7 +4686,7 @@
       </c>
       <c r="N203">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="6:14" x14ac:dyDescent="0.2">
@@ -4692,7 +4698,7 @@
       </c>
       <c r="N204">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="6:14" x14ac:dyDescent="0.2">
@@ -4704,7 +4710,7 @@
       </c>
       <c r="N205">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="6:14" x14ac:dyDescent="0.2">
@@ -4716,7 +4722,7 @@
       </c>
       <c r="N206">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="6:14" x14ac:dyDescent="0.2">
@@ -4728,7 +4734,7 @@
       </c>
       <c r="N207">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="6:14" x14ac:dyDescent="0.2">
@@ -4740,7 +4746,7 @@
       </c>
       <c r="N208">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="6:14" x14ac:dyDescent="0.2">
@@ -4752,7 +4758,7 @@
       </c>
       <c r="N209">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="6:14" x14ac:dyDescent="0.2">
@@ -4764,7 +4770,7 @@
       </c>
       <c r="N210">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="6:14" x14ac:dyDescent="0.2">
@@ -4776,7 +4782,7 @@
       </c>
       <c r="N211">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="6:14" x14ac:dyDescent="0.2">
@@ -4788,7 +4794,7 @@
       </c>
       <c r="N212">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="6:14" x14ac:dyDescent="0.2">
@@ -4800,7 +4806,7 @@
       </c>
       <c r="N213">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="6:14" x14ac:dyDescent="0.2">
@@ -4812,7 +4818,7 @@
       </c>
       <c r="N214">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="6:14" x14ac:dyDescent="0.2">
@@ -4824,7 +4830,7 @@
       </c>
       <c r="N215">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="6:14" x14ac:dyDescent="0.2">
@@ -4836,7 +4842,7 @@
       </c>
       <c r="N216">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="6:14" x14ac:dyDescent="0.2">
@@ -4848,7 +4854,7 @@
       </c>
       <c r="N217">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="6:14" x14ac:dyDescent="0.2">
@@ -4860,7 +4866,7 @@
       </c>
       <c r="N218">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="6:14" x14ac:dyDescent="0.2">
@@ -4872,7 +4878,7 @@
       </c>
       <c r="N219">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="6:14" x14ac:dyDescent="0.2">
@@ -4884,7 +4890,7 @@
       </c>
       <c r="N220">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="6:14" x14ac:dyDescent="0.2">
@@ -4896,7 +4902,7 @@
       </c>
       <c r="N221">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="6:14" x14ac:dyDescent="0.2">
@@ -4908,7 +4914,7 @@
       </c>
       <c r="N222">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="6:14" x14ac:dyDescent="0.2">
@@ -4920,7 +4926,7 @@
       </c>
       <c r="N223">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="6:14" x14ac:dyDescent="0.2">
@@ -4932,7 +4938,7 @@
       </c>
       <c r="N224">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="6:14" x14ac:dyDescent="0.2">
@@ -4944,7 +4950,7 @@
       </c>
       <c r="N225">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="6:14" x14ac:dyDescent="0.2">
@@ -4956,7 +4962,7 @@
       </c>
       <c r="N226">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="6:14" x14ac:dyDescent="0.2">
@@ -4968,7 +4974,7 @@
       </c>
       <c r="N227">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="6:14" x14ac:dyDescent="0.2">
@@ -4980,7 +4986,7 @@
       </c>
       <c r="N228">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="6:14" x14ac:dyDescent="0.2">
@@ -5004,7 +5010,7 @@
       </c>
       <c r="N230">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="6:14" x14ac:dyDescent="0.2">
@@ -5016,7 +5022,7 @@
       </c>
       <c r="N231">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="6:14" x14ac:dyDescent="0.2">
@@ -5028,7 +5034,7 @@
       </c>
       <c r="N232">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="6:14" x14ac:dyDescent="0.2">
@@ -5040,7 +5046,7 @@
       </c>
       <c r="N233">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="6:14" x14ac:dyDescent="0.2">
@@ -5052,7 +5058,7 @@
       </c>
       <c r="N234">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="6:14" x14ac:dyDescent="0.2">
@@ -5064,7 +5070,7 @@
       </c>
       <c r="N235">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="6:14" x14ac:dyDescent="0.2">
@@ -5076,7 +5082,7 @@
       </c>
       <c r="N236">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="6:14" x14ac:dyDescent="0.2">
@@ -5088,7 +5094,7 @@
       </c>
       <c r="N237">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="6:14" x14ac:dyDescent="0.2">
@@ -5100,7 +5106,7 @@
       </c>
       <c r="N238">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="6:14" x14ac:dyDescent="0.2">
@@ -5112,7 +5118,7 @@
       </c>
       <c r="N239">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="6:14" x14ac:dyDescent="0.2">
@@ -5124,7 +5130,7 @@
       </c>
       <c r="N240">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="6:14" x14ac:dyDescent="0.2">
@@ -5136,7 +5142,7 @@
       </c>
       <c r="N241">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="6:14" x14ac:dyDescent="0.2">
@@ -5148,7 +5154,7 @@
       </c>
       <c r="N242">
         <f t="shared" ref="N242:N305" ca="1" si="5">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="6:14" x14ac:dyDescent="0.2">
@@ -5160,7 +5166,7 @@
       </c>
       <c r="N243">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="6:14" x14ac:dyDescent="0.2">
@@ -5172,7 +5178,7 @@
       </c>
       <c r="N244">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="6:14" x14ac:dyDescent="0.2">
@@ -5184,7 +5190,7 @@
       </c>
       <c r="N245">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="6:14" x14ac:dyDescent="0.2">
@@ -5196,7 +5202,7 @@
       </c>
       <c r="N246">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="6:14" x14ac:dyDescent="0.2">
@@ -5208,7 +5214,7 @@
       </c>
       <c r="N247">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="6:14" x14ac:dyDescent="0.2">
@@ -5232,7 +5238,7 @@
       </c>
       <c r="N249">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="6:14" x14ac:dyDescent="0.2">
@@ -5244,7 +5250,7 @@
       </c>
       <c r="N250">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="6:14" x14ac:dyDescent="0.2">
@@ -5256,7 +5262,7 @@
       </c>
       <c r="N251">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="6:14" x14ac:dyDescent="0.2">
@@ -5268,7 +5274,7 @@
       </c>
       <c r="N252">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="6:14" x14ac:dyDescent="0.2">
@@ -5280,7 +5286,7 @@
       </c>
       <c r="N253">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="6:14" x14ac:dyDescent="0.2">
@@ -5292,7 +5298,7 @@
       </c>
       <c r="N254">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="6:14" x14ac:dyDescent="0.2">
@@ -5304,7 +5310,7 @@
       </c>
       <c r="N255">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="6:14" x14ac:dyDescent="0.2">
@@ -5316,7 +5322,7 @@
       </c>
       <c r="N256">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="6:14" x14ac:dyDescent="0.2">
@@ -5328,7 +5334,7 @@
       </c>
       <c r="N257">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="6:14" x14ac:dyDescent="0.2">
@@ -5340,7 +5346,7 @@
       </c>
       <c r="N258">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="6:14" x14ac:dyDescent="0.2">
@@ -5352,7 +5358,7 @@
       </c>
       <c r="N259">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="6:14" x14ac:dyDescent="0.2">
@@ -5376,7 +5382,7 @@
       </c>
       <c r="N261">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="6:14" x14ac:dyDescent="0.2">
@@ -5388,7 +5394,7 @@
       </c>
       <c r="N262">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="6:14" x14ac:dyDescent="0.2">
@@ -5412,7 +5418,7 @@
       </c>
       <c r="N264">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="6:14" x14ac:dyDescent="0.2">
@@ -5424,7 +5430,7 @@
       </c>
       <c r="N265">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="6:14" x14ac:dyDescent="0.2">
@@ -5436,7 +5442,7 @@
       </c>
       <c r="N266">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="6:14" x14ac:dyDescent="0.2">
@@ -5448,7 +5454,7 @@
       </c>
       <c r="N267">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268" spans="6:14" x14ac:dyDescent="0.2">
@@ -5460,7 +5466,7 @@
       </c>
       <c r="N268">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="6:14" x14ac:dyDescent="0.2">
@@ -5472,7 +5478,7 @@
       </c>
       <c r="N269">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="6:14" x14ac:dyDescent="0.2">
@@ -5496,7 +5502,7 @@
       </c>
       <c r="N271">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="6:14" x14ac:dyDescent="0.2">
@@ -5508,7 +5514,7 @@
       </c>
       <c r="N272">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="6:14" x14ac:dyDescent="0.2">
@@ -5520,7 +5526,7 @@
       </c>
       <c r="N273">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="6:14" x14ac:dyDescent="0.2">
@@ -5544,7 +5550,7 @@
       </c>
       <c r="N275">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="6:14" x14ac:dyDescent="0.2">
@@ -5556,7 +5562,7 @@
       </c>
       <c r="N276">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="6:14" x14ac:dyDescent="0.2">
@@ -5568,7 +5574,7 @@
       </c>
       <c r="N277">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="6:14" x14ac:dyDescent="0.2">
@@ -5580,7 +5586,7 @@
       </c>
       <c r="N278">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="6:14" x14ac:dyDescent="0.2">
@@ -5592,7 +5598,7 @@
       </c>
       <c r="N279">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="6:14" x14ac:dyDescent="0.2">
@@ -5604,7 +5610,7 @@
       </c>
       <c r="N280">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="6:14" x14ac:dyDescent="0.2">
@@ -5616,7 +5622,7 @@
       </c>
       <c r="N281">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="6:14" x14ac:dyDescent="0.2">
@@ -5628,7 +5634,7 @@
       </c>
       <c r="N282">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="6:14" x14ac:dyDescent="0.2">
@@ -5640,7 +5646,7 @@
       </c>
       <c r="N283">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="6:14" x14ac:dyDescent="0.2">
@@ -5652,7 +5658,7 @@
       </c>
       <c r="N284">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="6:14" x14ac:dyDescent="0.2">
@@ -5676,7 +5682,7 @@
       </c>
       <c r="N286">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287" spans="6:14" x14ac:dyDescent="0.2">
@@ -5700,7 +5706,7 @@
       </c>
       <c r="N288">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="6:14" x14ac:dyDescent="0.2">
@@ -5712,7 +5718,7 @@
       </c>
       <c r="N289">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="6:14" x14ac:dyDescent="0.2">
@@ -5724,7 +5730,7 @@
       </c>
       <c r="N290">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="6:14" x14ac:dyDescent="0.2">
@@ -5736,7 +5742,7 @@
       </c>
       <c r="N291">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="6:14" x14ac:dyDescent="0.2">
@@ -5748,7 +5754,7 @@
       </c>
       <c r="N292">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="6:14" x14ac:dyDescent="0.2">
@@ -5760,7 +5766,7 @@
       </c>
       <c r="N293">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="6:14" x14ac:dyDescent="0.2">
@@ -5772,7 +5778,7 @@
       </c>
       <c r="N294">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="6:14" x14ac:dyDescent="0.2">
@@ -5784,7 +5790,7 @@
       </c>
       <c r="N295">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="6:14" x14ac:dyDescent="0.2">
@@ -5808,7 +5814,7 @@
       </c>
       <c r="N297">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="6:14" x14ac:dyDescent="0.2">
@@ -5820,7 +5826,7 @@
       </c>
       <c r="N298">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="6:14" x14ac:dyDescent="0.2">
@@ -5832,7 +5838,7 @@
       </c>
       <c r="N299">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="6:14" x14ac:dyDescent="0.2">
@@ -5844,7 +5850,7 @@
       </c>
       <c r="N300">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="6:14" x14ac:dyDescent="0.2">
@@ -5856,7 +5862,7 @@
       </c>
       <c r="N301">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="6:14" x14ac:dyDescent="0.2">
@@ -5892,7 +5898,7 @@
       </c>
       <c r="N304">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="6:14" x14ac:dyDescent="0.2">
@@ -5940,7 +5946,7 @@
       </c>
       <c r="N308">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="6:14" x14ac:dyDescent="0.2">
@@ -5952,7 +5958,7 @@
       </c>
       <c r="N309">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310" spans="6:14" x14ac:dyDescent="0.2">
@@ -5964,7 +5970,7 @@
       </c>
       <c r="N310">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311" spans="6:14" x14ac:dyDescent="0.2">
@@ -5976,7 +5982,7 @@
       </c>
       <c r="N311">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="6:14" x14ac:dyDescent="0.2">
@@ -5988,7 +5994,7 @@
       </c>
       <c r="N312">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="6:14" x14ac:dyDescent="0.2">
@@ -6000,7 +6006,7 @@
       </c>
       <c r="N313">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="6:14" x14ac:dyDescent="0.2">
@@ -6024,7 +6030,7 @@
       </c>
       <c r="N315">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316" spans="6:14" x14ac:dyDescent="0.2">
@@ -6036,7 +6042,7 @@
       </c>
       <c r="N316">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="6:14" x14ac:dyDescent="0.2">
@@ -6072,7 +6078,7 @@
       </c>
       <c r="N319">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="6:14" x14ac:dyDescent="0.2">
@@ -6084,7 +6090,7 @@
       </c>
       <c r="N320">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="6:14" x14ac:dyDescent="0.2">
@@ -6108,7 +6114,7 @@
       </c>
       <c r="N322">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="6:14" x14ac:dyDescent="0.2">
@@ -6120,7 +6126,7 @@
       </c>
       <c r="N323">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="6:14" x14ac:dyDescent="0.2">
@@ -6132,7 +6138,7 @@
       </c>
       <c r="N324">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="6:14" x14ac:dyDescent="0.2">
@@ -6144,7 +6150,7 @@
       </c>
       <c r="N325">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="6:14" x14ac:dyDescent="0.2">
@@ -6156,7 +6162,7 @@
       </c>
       <c r="N326">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="6:14" x14ac:dyDescent="0.2">
@@ -6180,7 +6186,7 @@
       </c>
       <c r="N328">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="6:14" x14ac:dyDescent="0.2">
@@ -6192,7 +6198,7 @@
       </c>
       <c r="N329">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" spans="6:14" x14ac:dyDescent="0.2">
@@ -6216,7 +6222,7 @@
       </c>
       <c r="N331">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="6:14" x14ac:dyDescent="0.2">
@@ -6228,7 +6234,7 @@
       </c>
       <c r="N332">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="6:14" x14ac:dyDescent="0.2">
@@ -6240,7 +6246,7 @@
       </c>
       <c r="N333">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="6:14" x14ac:dyDescent="0.2">
@@ -6252,7 +6258,7 @@
       </c>
       <c r="N334">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="6:14" x14ac:dyDescent="0.2">
@@ -6264,7 +6270,7 @@
       </c>
       <c r="N335">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336" spans="6:14" x14ac:dyDescent="0.2">
@@ -6276,7 +6282,7 @@
       </c>
       <c r="N336">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="6:14" x14ac:dyDescent="0.2">
@@ -6288,7 +6294,7 @@
       </c>
       <c r="N337">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="6:14" x14ac:dyDescent="0.2">
@@ -6300,7 +6306,7 @@
       </c>
       <c r="N338">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="6:14" x14ac:dyDescent="0.2">
@@ -6312,7 +6318,7 @@
       </c>
       <c r="N339">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="6:14" x14ac:dyDescent="0.2">
@@ -6324,7 +6330,7 @@
       </c>
       <c r="N340">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="6:14" x14ac:dyDescent="0.2">
@@ -6336,7 +6342,7 @@
       </c>
       <c r="N341">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342" spans="6:14" x14ac:dyDescent="0.2">
@@ -6348,7 +6354,7 @@
       </c>
       <c r="N342">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="6:14" x14ac:dyDescent="0.2">
@@ -6360,7 +6366,7 @@
       </c>
       <c r="N343">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="6:14" x14ac:dyDescent="0.2">
@@ -6372,7 +6378,7 @@
       </c>
       <c r="N344">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="6:14" x14ac:dyDescent="0.2">
@@ -6384,7 +6390,7 @@
       </c>
       <c r="N345">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="6:14" x14ac:dyDescent="0.2">
@@ -6396,7 +6402,7 @@
       </c>
       <c r="N346">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="6:14" x14ac:dyDescent="0.2">
@@ -6408,7 +6414,7 @@
       </c>
       <c r="N347">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="6:14" x14ac:dyDescent="0.2">
@@ -6420,7 +6426,7 @@
       </c>
       <c r="N348">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="6:14" x14ac:dyDescent="0.2">
@@ -6432,7 +6438,7 @@
       </c>
       <c r="N349">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="6:14" x14ac:dyDescent="0.2">
@@ -6444,7 +6450,7 @@
       </c>
       <c r="N350">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="6:14" x14ac:dyDescent="0.2">
@@ -6456,7 +6462,7 @@
       </c>
       <c r="N351">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="6:14" x14ac:dyDescent="0.2">
@@ -6468,7 +6474,7 @@
       </c>
       <c r="N352">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353" spans="6:14" x14ac:dyDescent="0.2">
@@ -6480,7 +6486,7 @@
       </c>
       <c r="N353">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="6:14" x14ac:dyDescent="0.2">
@@ -6492,7 +6498,7 @@
       </c>
       <c r="N354">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355" spans="6:14" x14ac:dyDescent="0.2">
@@ -6504,7 +6510,7 @@
       </c>
       <c r="N355">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="6:14" x14ac:dyDescent="0.2">
@@ -6528,7 +6534,7 @@
       </c>
       <c r="N357">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358" spans="6:14" x14ac:dyDescent="0.2">
@@ -6540,7 +6546,7 @@
       </c>
       <c r="N358">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="6:14" x14ac:dyDescent="0.2">
@@ -6576,7 +6582,7 @@
       </c>
       <c r="N361">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362" spans="6:14" x14ac:dyDescent="0.2">
@@ -6588,7 +6594,7 @@
       </c>
       <c r="N362">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="6:14" x14ac:dyDescent="0.2">
@@ -6600,7 +6606,7 @@
       </c>
       <c r="N363">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364" spans="6:14" x14ac:dyDescent="0.2">
@@ -6612,7 +6618,7 @@
       </c>
       <c r="N364">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="6:14" x14ac:dyDescent="0.2">
@@ -6624,7 +6630,7 @@
       </c>
       <c r="N365">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="6:14" x14ac:dyDescent="0.2">
@@ -6636,7 +6642,7 @@
       </c>
       <c r="N366">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="6:14" x14ac:dyDescent="0.2">
@@ -6648,7 +6654,7 @@
       </c>
       <c r="N367">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="6:14" x14ac:dyDescent="0.2">
@@ -6672,7 +6678,7 @@
       </c>
       <c r="N369">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="370" spans="6:14" x14ac:dyDescent="0.2">
@@ -6696,7 +6702,7 @@
       </c>
       <c r="N371">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="6:14" x14ac:dyDescent="0.2">
@@ -6708,7 +6714,7 @@
       </c>
       <c r="N372">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="6:14" x14ac:dyDescent="0.2">
@@ -6720,7 +6726,7 @@
       </c>
       <c r="N373">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="6:14" x14ac:dyDescent="0.2">
@@ -6732,7 +6738,7 @@
       </c>
       <c r="N374">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="6:14" x14ac:dyDescent="0.2">
@@ -6744,7 +6750,7 @@
       </c>
       <c r="N375">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="6:14" x14ac:dyDescent="0.2">
@@ -6756,7 +6762,7 @@
       </c>
       <c r="N376">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="6:14" x14ac:dyDescent="0.2">
@@ -6768,7 +6774,7 @@
       </c>
       <c r="N377">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="378" spans="6:14" x14ac:dyDescent="0.2">
@@ -6780,7 +6786,7 @@
       </c>
       <c r="N378">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="6:14" x14ac:dyDescent="0.2">
@@ -6804,7 +6810,7 @@
       </c>
       <c r="N380">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="381" spans="6:14" x14ac:dyDescent="0.2">
@@ -6816,7 +6822,7 @@
       </c>
       <c r="N381">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="6:14" x14ac:dyDescent="0.2">
@@ -6828,7 +6834,7 @@
       </c>
       <c r="N382">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="6:14" x14ac:dyDescent="0.2">
@@ -6840,7 +6846,7 @@
       </c>
       <c r="N383">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="6:14" x14ac:dyDescent="0.2">
@@ -6852,7 +6858,7 @@
       </c>
       <c r="N384">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="6:14" x14ac:dyDescent="0.2">
@@ -6864,7 +6870,7 @@
       </c>
       <c r="N385">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="6:14" x14ac:dyDescent="0.2">
@@ -6876,7 +6882,7 @@
       </c>
       <c r="N386">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="6:14" x14ac:dyDescent="0.2">
@@ -6888,7 +6894,7 @@
       </c>
       <c r="N387">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="388" spans="6:14" x14ac:dyDescent="0.2">
@@ -6912,7 +6918,7 @@
       </c>
       <c r="N389">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="6:14" x14ac:dyDescent="0.2">
@@ -6924,7 +6930,7 @@
       </c>
       <c r="N390">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="391" spans="6:14" x14ac:dyDescent="0.2">
@@ -6936,7 +6942,7 @@
       </c>
       <c r="N391">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="6:14" x14ac:dyDescent="0.2">
@@ -6948,7 +6954,7 @@
       </c>
       <c r="N392">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="6:14" x14ac:dyDescent="0.2">
@@ -6960,7 +6966,7 @@
       </c>
       <c r="N393">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394" spans="6:14" x14ac:dyDescent="0.2">
@@ -6972,7 +6978,7 @@
       </c>
       <c r="N394">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395" spans="6:14" x14ac:dyDescent="0.2">
@@ -6984,7 +6990,7 @@
       </c>
       <c r="N395">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396" spans="6:14" x14ac:dyDescent="0.2">
@@ -6996,7 +7002,7 @@
       </c>
       <c r="N396">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="397" spans="6:14" x14ac:dyDescent="0.2">
@@ -7008,7 +7014,7 @@
       </c>
       <c r="N397">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="6:14" x14ac:dyDescent="0.2">
@@ -7020,7 +7026,7 @@
       </c>
       <c r="N398">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="6:14" x14ac:dyDescent="0.2">
@@ -7032,7 +7038,7 @@
       </c>
       <c r="N399">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="6:14" x14ac:dyDescent="0.2">
@@ -7044,7 +7050,7 @@
       </c>
       <c r="N400">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="6:14" x14ac:dyDescent="0.2">
@@ -7068,7 +7074,7 @@
       </c>
       <c r="N402">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="403" spans="6:14" x14ac:dyDescent="0.2">
@@ -7080,7 +7086,7 @@
       </c>
       <c r="N403">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="6:14" x14ac:dyDescent="0.2">
@@ -7092,7 +7098,7 @@
       </c>
       <c r="N404">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="405" spans="6:14" x14ac:dyDescent="0.2">
@@ -7104,7 +7110,7 @@
       </c>
       <c r="N405">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="406" spans="6:14" x14ac:dyDescent="0.2">
@@ -7116,7 +7122,7 @@
       </c>
       <c r="N406">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="6:14" x14ac:dyDescent="0.2">
@@ -7128,7 +7134,7 @@
       </c>
       <c r="N407">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="408" spans="6:14" x14ac:dyDescent="0.2">
@@ -7140,7 +7146,7 @@
       </c>
       <c r="N408">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="6:14" x14ac:dyDescent="0.2">
@@ -7152,7 +7158,7 @@
       </c>
       <c r="N409">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410" spans="6:14" x14ac:dyDescent="0.2">
@@ -7164,7 +7170,7 @@
       </c>
       <c r="N410">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="6:14" x14ac:dyDescent="0.2">
@@ -7176,7 +7182,7 @@
       </c>
       <c r="N411">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" spans="6:14" x14ac:dyDescent="0.2">
@@ -7188,7 +7194,7 @@
       </c>
       <c r="N412">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="413" spans="6:14" x14ac:dyDescent="0.2">
@@ -7200,7 +7206,7 @@
       </c>
       <c r="N413">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="6:14" x14ac:dyDescent="0.2">
@@ -7212,7 +7218,7 @@
       </c>
       <c r="N414">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="415" spans="6:14" x14ac:dyDescent="0.2">
@@ -7236,7 +7242,7 @@
       </c>
       <c r="N416">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="6:14" x14ac:dyDescent="0.2">
@@ -7248,7 +7254,7 @@
       </c>
       <c r="N417">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="6:14" x14ac:dyDescent="0.2">
@@ -7284,7 +7290,7 @@
       </c>
       <c r="N420">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="6:14" x14ac:dyDescent="0.2">
@@ -7308,7 +7314,7 @@
       </c>
       <c r="N422">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="423" spans="6:14" x14ac:dyDescent="0.2">
@@ -7320,7 +7326,7 @@
       </c>
       <c r="N423">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="6:14" x14ac:dyDescent="0.2">
@@ -7332,7 +7338,7 @@
       </c>
       <c r="N424">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="6:14" x14ac:dyDescent="0.2">
@@ -7344,7 +7350,7 @@
       </c>
       <c r="N425">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="6:14" x14ac:dyDescent="0.2">
@@ -7356,7 +7362,7 @@
       </c>
       <c r="N426">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="6:14" x14ac:dyDescent="0.2">
@@ -7368,7 +7374,7 @@
       </c>
       <c r="N427">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="6:14" x14ac:dyDescent="0.2">
@@ -7380,7 +7386,7 @@
       </c>
       <c r="N428">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="6:14" x14ac:dyDescent="0.2">
@@ -7392,7 +7398,7 @@
       </c>
       <c r="N429">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="430" spans="6:14" x14ac:dyDescent="0.2">
@@ -7404,7 +7410,7 @@
       </c>
       <c r="N430">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="6:14" x14ac:dyDescent="0.2">
@@ -7416,7 +7422,7 @@
       </c>
       <c r="N431">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="432" spans="6:14" x14ac:dyDescent="0.2">
@@ -7440,7 +7446,7 @@
       </c>
       <c r="N433">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="434" spans="6:14" x14ac:dyDescent="0.2">
@@ -7452,7 +7458,7 @@
       </c>
       <c r="N434">
         <f t="shared" ref="N434:N497" ca="1" si="8">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="435" spans="6:14" x14ac:dyDescent="0.2">
@@ -7464,7 +7470,7 @@
       </c>
       <c r="N435">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="6:14" x14ac:dyDescent="0.2">
@@ -7476,7 +7482,7 @@
       </c>
       <c r="N436">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="6:14" x14ac:dyDescent="0.2">
@@ -7488,7 +7494,7 @@
       </c>
       <c r="N437">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="438" spans="6:14" x14ac:dyDescent="0.2">
@@ -7500,7 +7506,7 @@
       </c>
       <c r="N438">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="439" spans="6:14" x14ac:dyDescent="0.2">
@@ -7512,7 +7518,7 @@
       </c>
       <c r="N439">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="440" spans="6:14" x14ac:dyDescent="0.2">
@@ -7524,7 +7530,7 @@
       </c>
       <c r="N440">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="6:14" x14ac:dyDescent="0.2">
@@ -7536,7 +7542,7 @@
       </c>
       <c r="N441">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="442" spans="6:14" x14ac:dyDescent="0.2">
@@ -7548,7 +7554,7 @@
       </c>
       <c r="N442">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443" spans="6:14" x14ac:dyDescent="0.2">
@@ -7560,7 +7566,7 @@
       </c>
       <c r="N443">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444" spans="6:14" x14ac:dyDescent="0.2">
@@ -7584,7 +7590,7 @@
       </c>
       <c r="N445">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="446" spans="6:14" x14ac:dyDescent="0.2">
@@ -7596,7 +7602,7 @@
       </c>
       <c r="N446">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="6:14" x14ac:dyDescent="0.2">
@@ -7608,7 +7614,7 @@
       </c>
       <c r="N447">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448" spans="6:14" x14ac:dyDescent="0.2">
@@ -7620,7 +7626,7 @@
       </c>
       <c r="N448">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="449" spans="6:14" x14ac:dyDescent="0.2">
@@ -7632,7 +7638,7 @@
       </c>
       <c r="N449">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="450" spans="6:14" x14ac:dyDescent="0.2">
@@ -7644,7 +7650,7 @@
       </c>
       <c r="N450">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="451" spans="6:14" x14ac:dyDescent="0.2">
@@ -7656,7 +7662,7 @@
       </c>
       <c r="N451">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="6:14" x14ac:dyDescent="0.2">
@@ -7668,7 +7674,7 @@
       </c>
       <c r="N452">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="453" spans="6:14" x14ac:dyDescent="0.2">
@@ -7680,7 +7686,7 @@
       </c>
       <c r="N453">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454" spans="6:14" x14ac:dyDescent="0.2">
@@ -7692,7 +7698,7 @@
       </c>
       <c r="N454">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="455" spans="6:14" x14ac:dyDescent="0.2">
@@ -7704,7 +7710,7 @@
       </c>
       <c r="N455">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="456" spans="6:14" x14ac:dyDescent="0.2">
@@ -7716,7 +7722,7 @@
       </c>
       <c r="N456">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="6:14" x14ac:dyDescent="0.2">
@@ -7728,7 +7734,7 @@
       </c>
       <c r="N457">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="6:14" x14ac:dyDescent="0.2">
@@ -7740,7 +7746,7 @@
       </c>
       <c r="N458">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="6:14" x14ac:dyDescent="0.2">
@@ -7752,7 +7758,7 @@
       </c>
       <c r="N459">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="6:14" x14ac:dyDescent="0.2">
@@ -7764,7 +7770,7 @@
       </c>
       <c r="N460">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461" spans="6:14" x14ac:dyDescent="0.2">
@@ -7776,7 +7782,7 @@
       </c>
       <c r="N461">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="462" spans="6:14" x14ac:dyDescent="0.2">
@@ -7788,7 +7794,7 @@
       </c>
       <c r="N462">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="463" spans="6:14" x14ac:dyDescent="0.2">
@@ -7800,7 +7806,7 @@
       </c>
       <c r="N463">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="6:14" x14ac:dyDescent="0.2">
@@ -7812,7 +7818,7 @@
       </c>
       <c r="N464">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="6:14" x14ac:dyDescent="0.2">
@@ -7824,7 +7830,7 @@
       </c>
       <c r="N465">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="6:14" x14ac:dyDescent="0.2">
@@ -7836,7 +7842,7 @@
       </c>
       <c r="N466">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="6:14" x14ac:dyDescent="0.2">
@@ -7848,7 +7854,7 @@
       </c>
       <c r="N467">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="468" spans="6:14" x14ac:dyDescent="0.2">
@@ -7860,7 +7866,7 @@
       </c>
       <c r="N468">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="6:14" x14ac:dyDescent="0.2">
@@ -7884,7 +7890,7 @@
       </c>
       <c r="N470">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="471" spans="6:14" x14ac:dyDescent="0.2">
@@ -7896,7 +7902,7 @@
       </c>
       <c r="N471">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="6:14" x14ac:dyDescent="0.2">
@@ -7932,7 +7938,7 @@
       </c>
       <c r="N474">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="6:14" x14ac:dyDescent="0.2">
@@ -7944,7 +7950,7 @@
       </c>
       <c r="N475">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="6:14" x14ac:dyDescent="0.2">
@@ -7956,7 +7962,7 @@
       </c>
       <c r="N476">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477" spans="6:14" x14ac:dyDescent="0.2">
@@ -7968,7 +7974,7 @@
       </c>
       <c r="N477">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="6:14" x14ac:dyDescent="0.2">
@@ -7980,7 +7986,7 @@
       </c>
       <c r="N478">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="479" spans="6:14" x14ac:dyDescent="0.2">
@@ -7992,7 +7998,7 @@
       </c>
       <c r="N479">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="480" spans="6:14" x14ac:dyDescent="0.2">
@@ -8004,7 +8010,7 @@
       </c>
       <c r="N480">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="6:14" x14ac:dyDescent="0.2">
@@ -8016,7 +8022,7 @@
       </c>
       <c r="N481">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="482" spans="6:14" x14ac:dyDescent="0.2">
@@ -8040,7 +8046,7 @@
       </c>
       <c r="N483">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="484" spans="6:14" x14ac:dyDescent="0.2">
@@ -8052,7 +8058,7 @@
       </c>
       <c r="N484">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="485" spans="6:14" x14ac:dyDescent="0.2">
@@ -8064,7 +8070,7 @@
       </c>
       <c r="N485">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="6:14" x14ac:dyDescent="0.2">
@@ -8076,7 +8082,7 @@
       </c>
       <c r="N486">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="487" spans="6:14" x14ac:dyDescent="0.2">
@@ -8088,7 +8094,7 @@
       </c>
       <c r="N487">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="488" spans="6:14" x14ac:dyDescent="0.2">
@@ -8100,7 +8106,7 @@
       </c>
       <c r="N488">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="6:14" x14ac:dyDescent="0.2">
@@ -8112,7 +8118,7 @@
       </c>
       <c r="N489">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="490" spans="6:14" x14ac:dyDescent="0.2">
@@ -8124,7 +8130,7 @@
       </c>
       <c r="N490">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="491" spans="6:14" x14ac:dyDescent="0.2">
@@ -8136,7 +8142,7 @@
       </c>
       <c r="N491">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="492" spans="6:14" x14ac:dyDescent="0.2">
@@ -8148,7 +8154,7 @@
       </c>
       <c r="N492">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="6:14" x14ac:dyDescent="0.2">
@@ -8160,7 +8166,7 @@
       </c>
       <c r="N493">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="494" spans="6:14" x14ac:dyDescent="0.2">
@@ -8184,7 +8190,7 @@
       </c>
       <c r="N495">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496" spans="6:14" x14ac:dyDescent="0.2">
@@ -8196,7 +8202,7 @@
       </c>
       <c r="N496">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="497" spans="6:14" x14ac:dyDescent="0.2">
@@ -8220,7 +8226,7 @@
       </c>
       <c r="N498">
         <f t="shared" ref="N498:N561" ca="1" si="9">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="6:14" x14ac:dyDescent="0.2">
@@ -8232,7 +8238,7 @@
       </c>
       <c r="N499">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="500" spans="6:14" x14ac:dyDescent="0.2">
@@ -8244,7 +8250,7 @@
       </c>
       <c r="N500">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="6:14" x14ac:dyDescent="0.2">
@@ -8268,7 +8274,7 @@
       </c>
       <c r="N502">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="503" spans="6:14" x14ac:dyDescent="0.2">
@@ -8280,7 +8286,7 @@
       </c>
       <c r="N503">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="6:14" x14ac:dyDescent="0.2">
@@ -8292,7 +8298,7 @@
       </c>
       <c r="N504">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="6:14" x14ac:dyDescent="0.2">
@@ -8304,7 +8310,7 @@
       </c>
       <c r="N505">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="506" spans="6:14" x14ac:dyDescent="0.2">
@@ -8316,7 +8322,7 @@
       </c>
       <c r="N506">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="507" spans="6:14" x14ac:dyDescent="0.2">
@@ -8328,7 +8334,7 @@
       </c>
       <c r="N507">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="508" spans="6:14" x14ac:dyDescent="0.2">
@@ -8340,7 +8346,7 @@
       </c>
       <c r="N508">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="509" spans="6:14" x14ac:dyDescent="0.2">
@@ -8352,7 +8358,7 @@
       </c>
       <c r="N509">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="6:14" x14ac:dyDescent="0.2">
@@ -8364,7 +8370,7 @@
       </c>
       <c r="N510">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="511" spans="6:14" x14ac:dyDescent="0.2">
@@ -8376,7 +8382,7 @@
       </c>
       <c r="N511">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="6:14" x14ac:dyDescent="0.2">
@@ -8388,7 +8394,7 @@
       </c>
       <c r="N512">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="6:14" x14ac:dyDescent="0.2">
@@ -8400,7 +8406,7 @@
       </c>
       <c r="N513">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="6:14" x14ac:dyDescent="0.2">
@@ -8412,7 +8418,7 @@
       </c>
       <c r="N514">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="6:14" x14ac:dyDescent="0.2">
@@ -8424,7 +8430,7 @@
       </c>
       <c r="N515">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="6:14" x14ac:dyDescent="0.2">
@@ -8436,7 +8442,7 @@
       </c>
       <c r="N516">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="517" spans="6:14" x14ac:dyDescent="0.2">
@@ -8448,7 +8454,7 @@
       </c>
       <c r="N517">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="6:14" x14ac:dyDescent="0.2">
@@ -8472,7 +8478,7 @@
       </c>
       <c r="N519">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="6:14" x14ac:dyDescent="0.2">
@@ -8484,7 +8490,7 @@
       </c>
       <c r="N520">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="6:14" x14ac:dyDescent="0.2">
@@ -8496,7 +8502,7 @@
       </c>
       <c r="N521">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="522" spans="6:14" x14ac:dyDescent="0.2">
@@ -8508,7 +8514,7 @@
       </c>
       <c r="N522">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="523" spans="6:14" x14ac:dyDescent="0.2">
@@ -8532,7 +8538,7 @@
       </c>
       <c r="N524">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="525" spans="6:14" x14ac:dyDescent="0.2">
@@ -8568,7 +8574,7 @@
       </c>
       <c r="N527">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="528" spans="6:14" x14ac:dyDescent="0.2">
@@ -8580,7 +8586,7 @@
       </c>
       <c r="N528">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="6:14" x14ac:dyDescent="0.2">
@@ -8592,7 +8598,7 @@
       </c>
       <c r="N529">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="6:14" x14ac:dyDescent="0.2">
@@ -8604,7 +8610,7 @@
       </c>
       <c r="N530">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="6:14" x14ac:dyDescent="0.2">
@@ -8616,7 +8622,7 @@
       </c>
       <c r="N531">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="6:14" x14ac:dyDescent="0.2">
@@ -8628,7 +8634,7 @@
       </c>
       <c r="N532">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="533" spans="6:14" x14ac:dyDescent="0.2">
@@ -8640,7 +8646,7 @@
       </c>
       <c r="N533">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="534" spans="6:14" x14ac:dyDescent="0.2">
@@ -8652,7 +8658,7 @@
       </c>
       <c r="N534">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="6:14" x14ac:dyDescent="0.2">
@@ -8664,7 +8670,7 @@
       </c>
       <c r="N535">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="536" spans="6:14" x14ac:dyDescent="0.2">
@@ -8676,7 +8682,7 @@
       </c>
       <c r="N536">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="537" spans="6:14" x14ac:dyDescent="0.2">
@@ -8688,7 +8694,7 @@
       </c>
       <c r="N537">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="538" spans="6:14" x14ac:dyDescent="0.2">
@@ -8700,7 +8706,7 @@
       </c>
       <c r="N538">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="6:14" x14ac:dyDescent="0.2">
@@ -8712,7 +8718,7 @@
       </c>
       <c r="N539">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="540" spans="6:14" x14ac:dyDescent="0.2">
@@ -8724,7 +8730,7 @@
       </c>
       <c r="N540">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="6:14" x14ac:dyDescent="0.2">
@@ -8736,7 +8742,7 @@
       </c>
       <c r="N541">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="6:14" x14ac:dyDescent="0.2">
@@ -8748,7 +8754,7 @@
       </c>
       <c r="N542">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="6:14" x14ac:dyDescent="0.2">
@@ -8760,7 +8766,7 @@
       </c>
       <c r="N543">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="544" spans="6:14" x14ac:dyDescent="0.2">
@@ -8772,7 +8778,7 @@
       </c>
       <c r="N544">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="6:14" x14ac:dyDescent="0.2">
@@ -8784,7 +8790,7 @@
       </c>
       <c r="N545">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="546" spans="6:14" x14ac:dyDescent="0.2">
@@ -8796,7 +8802,7 @@
       </c>
       <c r="N546">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="6:14" x14ac:dyDescent="0.2">
@@ -8808,7 +8814,7 @@
       </c>
       <c r="N547">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="6:14" x14ac:dyDescent="0.2">
@@ -8820,7 +8826,7 @@
       </c>
       <c r="N548">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="6:14" x14ac:dyDescent="0.2">
@@ -8832,7 +8838,7 @@
       </c>
       <c r="N549">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="550" spans="6:14" x14ac:dyDescent="0.2">
@@ -8844,7 +8850,7 @@
       </c>
       <c r="N550">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="6:14" x14ac:dyDescent="0.2">
@@ -8880,7 +8886,7 @@
       </c>
       <c r="N553">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="554" spans="6:14" x14ac:dyDescent="0.2">
@@ -8892,7 +8898,7 @@
       </c>
       <c r="N554">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="6:14" x14ac:dyDescent="0.2">
@@ -8916,7 +8922,7 @@
       </c>
       <c r="N556">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="6:14" x14ac:dyDescent="0.2">
@@ -8928,7 +8934,7 @@
       </c>
       <c r="N557">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="558" spans="6:14" x14ac:dyDescent="0.2">
@@ -8940,7 +8946,7 @@
       </c>
       <c r="N558">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="6:14" x14ac:dyDescent="0.2">
@@ -8952,7 +8958,7 @@
       </c>
       <c r="N559">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="6:14" x14ac:dyDescent="0.2">
@@ -8964,7 +8970,7 @@
       </c>
       <c r="N560">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="561" spans="6:14" x14ac:dyDescent="0.2">
@@ -8976,7 +8982,7 @@
       </c>
       <c r="N561">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="562" spans="6:14" x14ac:dyDescent="0.2">
@@ -8988,7 +8994,7 @@
       </c>
       <c r="N562">
         <f t="shared" ref="N562:N625" ca="1" si="10">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="6:14" x14ac:dyDescent="0.2">
@@ -9000,7 +9006,7 @@
       </c>
       <c r="N563">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="6:14" x14ac:dyDescent="0.2">
@@ -9024,7 +9030,7 @@
       </c>
       <c r="N565">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="6:14" x14ac:dyDescent="0.2">
@@ -9036,7 +9042,7 @@
       </c>
       <c r="N566">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="6:14" x14ac:dyDescent="0.2">
@@ -9048,7 +9054,7 @@
       </c>
       <c r="N567">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568" spans="6:14" x14ac:dyDescent="0.2">
@@ -9060,7 +9066,7 @@
       </c>
       <c r="N568">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="6:14" x14ac:dyDescent="0.2">
@@ -9072,7 +9078,7 @@
       </c>
       <c r="N569">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="6:14" x14ac:dyDescent="0.2">
@@ -9084,7 +9090,7 @@
       </c>
       <c r="N570">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="571" spans="6:14" x14ac:dyDescent="0.2">
@@ -9096,7 +9102,7 @@
       </c>
       <c r="N571">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="6:14" x14ac:dyDescent="0.2">
@@ -9108,7 +9114,7 @@
       </c>
       <c r="N572">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="573" spans="6:14" x14ac:dyDescent="0.2">
@@ -9120,7 +9126,7 @@
       </c>
       <c r="N573">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="574" spans="6:14" x14ac:dyDescent="0.2">
@@ -9132,7 +9138,7 @@
       </c>
       <c r="N574">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575" spans="6:14" x14ac:dyDescent="0.2">
@@ -9156,7 +9162,7 @@
       </c>
       <c r="N576">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="6:14" x14ac:dyDescent="0.2">
@@ -9168,7 +9174,7 @@
       </c>
       <c r="N577">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="578" spans="6:14" x14ac:dyDescent="0.2">
@@ -9180,7 +9186,7 @@
       </c>
       <c r="N578">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="579" spans="6:14" x14ac:dyDescent="0.2">
@@ -9192,7 +9198,7 @@
       </c>
       <c r="N579">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="6:14" x14ac:dyDescent="0.2">
@@ -9204,7 +9210,7 @@
       </c>
       <c r="N580">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="581" spans="6:14" x14ac:dyDescent="0.2">
@@ -9216,7 +9222,7 @@
       </c>
       <c r="N581">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="6:14" x14ac:dyDescent="0.2">
@@ -9228,7 +9234,7 @@
       </c>
       <c r="N582">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="583" spans="6:14" x14ac:dyDescent="0.2">
@@ -9252,7 +9258,7 @@
       </c>
       <c r="N584">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="6:14" x14ac:dyDescent="0.2">
@@ -9264,7 +9270,7 @@
       </c>
       <c r="N585">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="586" spans="6:14" x14ac:dyDescent="0.2">
@@ -9276,7 +9282,7 @@
       </c>
       <c r="N586">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="587" spans="6:14" x14ac:dyDescent="0.2">
@@ -9288,7 +9294,7 @@
       </c>
       <c r="N587">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="588" spans="6:14" x14ac:dyDescent="0.2">
@@ -9312,7 +9318,7 @@
       </c>
       <c r="N589">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="6:14" x14ac:dyDescent="0.2">
@@ -9324,7 +9330,7 @@
       </c>
       <c r="N590">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="591" spans="6:14" x14ac:dyDescent="0.2">
@@ -9336,7 +9342,7 @@
       </c>
       <c r="N591">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="6:14" x14ac:dyDescent="0.2">
@@ -9360,7 +9366,7 @@
       </c>
       <c r="N593">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="6:14" x14ac:dyDescent="0.2">
@@ -9384,7 +9390,7 @@
       </c>
       <c r="N595">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="6:14" x14ac:dyDescent="0.2">
@@ -9408,7 +9414,7 @@
       </c>
       <c r="N597">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="598" spans="6:14" x14ac:dyDescent="0.2">
@@ -9420,7 +9426,7 @@
       </c>
       <c r="N598">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="599" spans="6:14" x14ac:dyDescent="0.2">
@@ -9432,7 +9438,7 @@
       </c>
       <c r="N599">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="600" spans="6:14" x14ac:dyDescent="0.2">
@@ -9444,7 +9450,7 @@
       </c>
       <c r="N600">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="6:14" x14ac:dyDescent="0.2">
@@ -9456,7 +9462,7 @@
       </c>
       <c r="N601">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="6:14" x14ac:dyDescent="0.2">
@@ -9468,7 +9474,7 @@
       </c>
       <c r="N602">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="603" spans="6:14" x14ac:dyDescent="0.2">
@@ -9492,7 +9498,7 @@
       </c>
       <c r="N604">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="6:14" x14ac:dyDescent="0.2">
@@ -9516,7 +9522,7 @@
       </c>
       <c r="N606">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="607" spans="6:14" x14ac:dyDescent="0.2">
@@ -9528,7 +9534,7 @@
       </c>
       <c r="N607">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="6:14" x14ac:dyDescent="0.2">
@@ -9540,7 +9546,7 @@
       </c>
       <c r="N608">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="6:14" x14ac:dyDescent="0.2">
@@ -9552,7 +9558,7 @@
       </c>
       <c r="N609">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="610" spans="6:14" x14ac:dyDescent="0.2">
@@ -9564,7 +9570,7 @@
       </c>
       <c r="N610">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="611" spans="6:14" x14ac:dyDescent="0.2">
@@ -9576,7 +9582,7 @@
       </c>
       <c r="N611">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="612" spans="6:14" x14ac:dyDescent="0.2">
@@ -9588,7 +9594,7 @@
       </c>
       <c r="N612">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="613" spans="6:14" x14ac:dyDescent="0.2">
@@ -9600,7 +9606,7 @@
       </c>
       <c r="N613">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="614" spans="6:14" x14ac:dyDescent="0.2">
@@ -9612,7 +9618,7 @@
       </c>
       <c r="N614">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="615" spans="6:14" x14ac:dyDescent="0.2">
@@ -9624,7 +9630,7 @@
       </c>
       <c r="N615">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="616" spans="6:14" x14ac:dyDescent="0.2">
@@ -9636,7 +9642,7 @@
       </c>
       <c r="N616">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="6:14" x14ac:dyDescent="0.2">
@@ -9648,7 +9654,7 @@
       </c>
       <c r="N617">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="6:14" x14ac:dyDescent="0.2">
@@ -9660,7 +9666,7 @@
       </c>
       <c r="N618">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="6:14" x14ac:dyDescent="0.2">
@@ -9684,7 +9690,7 @@
       </c>
       <c r="N620">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="6:14" x14ac:dyDescent="0.2">
@@ -9696,7 +9702,7 @@
       </c>
       <c r="N621">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="6:14" x14ac:dyDescent="0.2">
@@ -9708,7 +9714,7 @@
       </c>
       <c r="N622">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="623" spans="6:14" x14ac:dyDescent="0.2">
@@ -9720,7 +9726,7 @@
       </c>
       <c r="N623">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="624" spans="6:14" x14ac:dyDescent="0.2">
@@ -9732,7 +9738,7 @@
       </c>
       <c r="N624">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="625" spans="6:14" x14ac:dyDescent="0.2">
@@ -9744,7 +9750,7 @@
       </c>
       <c r="N625">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="626" spans="6:14" x14ac:dyDescent="0.2">
@@ -9768,7 +9774,7 @@
       </c>
       <c r="N627">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="628" spans="6:14" x14ac:dyDescent="0.2">
@@ -9780,7 +9786,7 @@
       </c>
       <c r="N628">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="629" spans="6:14" x14ac:dyDescent="0.2">
@@ -9792,7 +9798,7 @@
       </c>
       <c r="N629">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="630" spans="6:14" x14ac:dyDescent="0.2">
@@ -9804,7 +9810,7 @@
       </c>
       <c r="N630">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="631" spans="6:14" x14ac:dyDescent="0.2">
@@ -9816,7 +9822,7 @@
       </c>
       <c r="N631">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="632" spans="6:14" x14ac:dyDescent="0.2">
@@ -9828,7 +9834,7 @@
       </c>
       <c r="N632">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="6:14" x14ac:dyDescent="0.2">
@@ -9840,7 +9846,7 @@
       </c>
       <c r="N633">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="634" spans="6:14" x14ac:dyDescent="0.2">
@@ -9852,7 +9858,7 @@
       </c>
       <c r="N634">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="6:14" x14ac:dyDescent="0.2">
@@ -9864,7 +9870,7 @@
       </c>
       <c r="N635">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="636" spans="6:14" x14ac:dyDescent="0.2">
@@ -9876,7 +9882,7 @@
       </c>
       <c r="N636">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="637" spans="6:14" x14ac:dyDescent="0.2">
@@ -9888,7 +9894,7 @@
       </c>
       <c r="N637">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="638" spans="6:14" x14ac:dyDescent="0.2">
@@ -9900,7 +9906,7 @@
       </c>
       <c r="N638">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="639" spans="6:14" x14ac:dyDescent="0.2">
@@ -9912,7 +9918,7 @@
       </c>
       <c r="N639">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="640" spans="6:14" x14ac:dyDescent="0.2">
@@ -9924,7 +9930,7 @@
       </c>
       <c r="N640">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="641" spans="6:14" x14ac:dyDescent="0.2">
@@ -9948,7 +9954,7 @@
       </c>
       <c r="N642">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="6:14" x14ac:dyDescent="0.2">
@@ -9960,7 +9966,7 @@
       </c>
       <c r="N643">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="644" spans="6:14" x14ac:dyDescent="0.2">
@@ -9972,7 +9978,7 @@
       </c>
       <c r="N644">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="645" spans="6:14" x14ac:dyDescent="0.2">
@@ -9984,7 +9990,7 @@
       </c>
       <c r="N645">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="646" spans="6:14" x14ac:dyDescent="0.2">
@@ -9996,7 +10002,7 @@
       </c>
       <c r="N646">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="647" spans="6:14" x14ac:dyDescent="0.2">
@@ -10020,7 +10026,7 @@
       </c>
       <c r="N648">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="6:14" x14ac:dyDescent="0.2">
@@ -10032,7 +10038,7 @@
       </c>
       <c r="N649">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="650" spans="6:14" x14ac:dyDescent="0.2">
@@ -10044,7 +10050,7 @@
       </c>
       <c r="N650">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="6:14" x14ac:dyDescent="0.2">
@@ -10056,7 +10062,7 @@
       </c>
       <c r="N651">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="6:14" x14ac:dyDescent="0.2">
@@ -10068,7 +10074,7 @@
       </c>
       <c r="N652">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="653" spans="6:14" x14ac:dyDescent="0.2">
@@ -10080,7 +10086,7 @@
       </c>
       <c r="N653">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="654" spans="6:14" x14ac:dyDescent="0.2">
@@ -10092,7 +10098,7 @@
       </c>
       <c r="N654">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="6:14" x14ac:dyDescent="0.2">
@@ -10104,7 +10110,7 @@
       </c>
       <c r="N655">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="6:14" x14ac:dyDescent="0.2">
@@ -10116,7 +10122,7 @@
       </c>
       <c r="N656">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="6:14" x14ac:dyDescent="0.2">
@@ -10128,7 +10134,7 @@
       </c>
       <c r="N657">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="658" spans="6:14" x14ac:dyDescent="0.2">
@@ -10140,7 +10146,7 @@
       </c>
       <c r="N658">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="659" spans="6:14" x14ac:dyDescent="0.2">
@@ -10152,7 +10158,7 @@
       </c>
       <c r="N659">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="6:14" x14ac:dyDescent="0.2">
@@ -10164,7 +10170,7 @@
       </c>
       <c r="N660">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="661" spans="6:14" x14ac:dyDescent="0.2">
@@ -10176,7 +10182,7 @@
       </c>
       <c r="N661">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="662" spans="6:14" x14ac:dyDescent="0.2">
@@ -10188,7 +10194,7 @@
       </c>
       <c r="N662">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663" spans="6:14" x14ac:dyDescent="0.2">
@@ -10200,7 +10206,7 @@
       </c>
       <c r="N663">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="6:14" x14ac:dyDescent="0.2">
@@ -10212,7 +10218,7 @@
       </c>
       <c r="N664">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="665" spans="6:14" x14ac:dyDescent="0.2">
@@ -10224,7 +10230,7 @@
       </c>
       <c r="N665">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="6:14" x14ac:dyDescent="0.2">
@@ -10236,7 +10242,7 @@
       </c>
       <c r="N666">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="667" spans="6:14" x14ac:dyDescent="0.2">
@@ -10248,7 +10254,7 @@
       </c>
       <c r="N667">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668" spans="6:14" x14ac:dyDescent="0.2">
@@ -10272,7 +10278,7 @@
       </c>
       <c r="N669">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="6:14" x14ac:dyDescent="0.2">
@@ -10284,7 +10290,7 @@
       </c>
       <c r="N670">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="6:14" x14ac:dyDescent="0.2">
@@ -10296,7 +10302,7 @@
       </c>
       <c r="N671">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="6:14" x14ac:dyDescent="0.2">
@@ -10320,7 +10326,7 @@
       </c>
       <c r="N673">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="6:14" x14ac:dyDescent="0.2">
@@ -10356,7 +10362,7 @@
       </c>
       <c r="N676">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="6:14" x14ac:dyDescent="0.2">
@@ -10368,7 +10374,7 @@
       </c>
       <c r="N677">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="6:14" x14ac:dyDescent="0.2">
@@ -10380,7 +10386,7 @@
       </c>
       <c r="N678">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="6:14" x14ac:dyDescent="0.2">
@@ -10404,7 +10410,7 @@
       </c>
       <c r="N680">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="681" spans="6:14" x14ac:dyDescent="0.2">
@@ -10416,7 +10422,7 @@
       </c>
       <c r="N681">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="6:14" x14ac:dyDescent="0.2">
@@ -10428,7 +10434,7 @@
       </c>
       <c r="N682">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="6:14" x14ac:dyDescent="0.2">
@@ -10440,7 +10446,7 @@
       </c>
       <c r="N683">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="6:14" x14ac:dyDescent="0.2">
@@ -10452,7 +10458,7 @@
       </c>
       <c r="N684">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="685" spans="6:14" x14ac:dyDescent="0.2">
@@ -10464,7 +10470,7 @@
       </c>
       <c r="N685">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="6:14" x14ac:dyDescent="0.2">
@@ -10476,7 +10482,7 @@
       </c>
       <c r="N686">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687" spans="6:14" x14ac:dyDescent="0.2">
@@ -10488,7 +10494,7 @@
       </c>
       <c r="N687">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="688" spans="6:14" x14ac:dyDescent="0.2">
@@ -10500,7 +10506,7 @@
       </c>
       <c r="N688">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="6:14" x14ac:dyDescent="0.2">
@@ -10512,7 +10518,7 @@
       </c>
       <c r="N689">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="690" spans="6:14" x14ac:dyDescent="0.2">
@@ -10524,7 +10530,7 @@
       </c>
       <c r="N690">
         <f t="shared" ref="N690:N753" ca="1" si="12">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="691" spans="6:14" x14ac:dyDescent="0.2">
@@ -10536,7 +10542,7 @@
       </c>
       <c r="N691">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="692" spans="6:14" x14ac:dyDescent="0.2">
@@ -10548,7 +10554,7 @@
       </c>
       <c r="N692">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="693" spans="6:14" x14ac:dyDescent="0.2">
@@ -10560,7 +10566,7 @@
       </c>
       <c r="N693">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="6:14" x14ac:dyDescent="0.2">
@@ -10572,7 +10578,7 @@
       </c>
       <c r="N694">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="695" spans="6:14" x14ac:dyDescent="0.2">
@@ -10584,7 +10590,7 @@
       </c>
       <c r="N695">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="696" spans="6:14" x14ac:dyDescent="0.2">
@@ -10608,7 +10614,7 @@
       </c>
       <c r="N697">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="698" spans="6:14" x14ac:dyDescent="0.2">
@@ -10632,7 +10638,7 @@
       </c>
       <c r="N699">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="6:14" x14ac:dyDescent="0.2">
@@ -10644,7 +10650,7 @@
       </c>
       <c r="N700">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="701" spans="6:14" x14ac:dyDescent="0.2">
@@ -10656,7 +10662,7 @@
       </c>
       <c r="N701">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="6:14" x14ac:dyDescent="0.2">
@@ -10668,7 +10674,7 @@
       </c>
       <c r="N702">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="6:14" x14ac:dyDescent="0.2">
@@ -10680,7 +10686,7 @@
       </c>
       <c r="N703">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="6:14" x14ac:dyDescent="0.2">
@@ -10692,7 +10698,7 @@
       </c>
       <c r="N704">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="705" spans="6:14" x14ac:dyDescent="0.2">
@@ -10704,7 +10710,7 @@
       </c>
       <c r="N705">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="706" spans="6:14" x14ac:dyDescent="0.2">
@@ -10716,7 +10722,7 @@
       </c>
       <c r="N706">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="6:14" x14ac:dyDescent="0.2">
@@ -10728,7 +10734,7 @@
       </c>
       <c r="N707">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="6:14" x14ac:dyDescent="0.2">
@@ -10740,7 +10746,7 @@
       </c>
       <c r="N708">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709" spans="6:14" x14ac:dyDescent="0.2">
@@ -10752,7 +10758,7 @@
       </c>
       <c r="N709">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="710" spans="6:14" x14ac:dyDescent="0.2">
@@ -10764,7 +10770,7 @@
       </c>
       <c r="N710">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="711" spans="6:14" x14ac:dyDescent="0.2">
@@ -10776,7 +10782,7 @@
       </c>
       <c r="N711">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="6:14" x14ac:dyDescent="0.2">
@@ -10788,7 +10794,7 @@
       </c>
       <c r="N712">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="713" spans="6:14" x14ac:dyDescent="0.2">
@@ -10800,7 +10806,7 @@
       </c>
       <c r="N713">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="714" spans="6:14" x14ac:dyDescent="0.2">
@@ -10812,7 +10818,7 @@
       </c>
       <c r="N714">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="715" spans="6:14" x14ac:dyDescent="0.2">
@@ -10824,7 +10830,7 @@
       </c>
       <c r="N715">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="6:14" x14ac:dyDescent="0.2">
@@ -10836,7 +10842,7 @@
       </c>
       <c r="N716">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="717" spans="6:14" x14ac:dyDescent="0.2">
@@ -10848,7 +10854,7 @@
       </c>
       <c r="N717">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="718" spans="6:14" x14ac:dyDescent="0.2">
@@ -10860,7 +10866,7 @@
       </c>
       <c r="N718">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="719" spans="6:14" x14ac:dyDescent="0.2">
@@ -10872,7 +10878,7 @@
       </c>
       <c r="N719">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="720" spans="6:14" x14ac:dyDescent="0.2">
@@ -10896,7 +10902,7 @@
       </c>
       <c r="N721">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="6:14" x14ac:dyDescent="0.2">
@@ -10908,7 +10914,7 @@
       </c>
       <c r="N722">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="723" spans="6:14" x14ac:dyDescent="0.2">
@@ -10920,7 +10926,7 @@
       </c>
       <c r="N723">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724" spans="6:14" x14ac:dyDescent="0.2">
@@ -10932,7 +10938,7 @@
       </c>
       <c r="N724">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="725" spans="6:14" x14ac:dyDescent="0.2">
@@ -10944,7 +10950,7 @@
       </c>
       <c r="N725">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="726" spans="6:14" x14ac:dyDescent="0.2">
@@ -10956,7 +10962,7 @@
       </c>
       <c r="N726">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="727" spans="6:14" x14ac:dyDescent="0.2">
@@ -10980,7 +10986,7 @@
       </c>
       <c r="N728">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="729" spans="6:14" x14ac:dyDescent="0.2">
@@ -10992,7 +10998,7 @@
       </c>
       <c r="N729">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="6:14" x14ac:dyDescent="0.2">
@@ -11016,7 +11022,7 @@
       </c>
       <c r="N731">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="732" spans="6:14" x14ac:dyDescent="0.2">
@@ -11028,7 +11034,7 @@
       </c>
       <c r="N732">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="6:14" x14ac:dyDescent="0.2">
@@ -11040,7 +11046,7 @@
       </c>
       <c r="N733">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="734" spans="6:14" x14ac:dyDescent="0.2">
@@ -11052,7 +11058,7 @@
       </c>
       <c r="N734">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="735" spans="6:14" x14ac:dyDescent="0.2">
@@ -11064,7 +11070,7 @@
       </c>
       <c r="N735">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="736" spans="6:14" x14ac:dyDescent="0.2">
@@ -11076,7 +11082,7 @@
       </c>
       <c r="N736">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="737" spans="6:14" x14ac:dyDescent="0.2">
@@ -11088,7 +11094,7 @@
       </c>
       <c r="N737">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="738" spans="6:14" x14ac:dyDescent="0.2">
@@ -11100,7 +11106,7 @@
       </c>
       <c r="N738">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="739" spans="6:14" x14ac:dyDescent="0.2">
@@ -11124,7 +11130,7 @@
       </c>
       <c r="N740">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="741" spans="6:14" x14ac:dyDescent="0.2">
@@ -11136,7 +11142,7 @@
       </c>
       <c r="N741">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="742" spans="6:14" x14ac:dyDescent="0.2">
@@ -11148,7 +11154,7 @@
       </c>
       <c r="N742">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="743" spans="6:14" x14ac:dyDescent="0.2">
@@ -11160,7 +11166,7 @@
       </c>
       <c r="N743">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="744" spans="6:14" x14ac:dyDescent="0.2">
@@ -11172,7 +11178,7 @@
       </c>
       <c r="N744">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="745" spans="6:14" x14ac:dyDescent="0.2">
@@ -11184,7 +11190,7 @@
       </c>
       <c r="N745">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="746" spans="6:14" x14ac:dyDescent="0.2">
@@ -11208,7 +11214,7 @@
       </c>
       <c r="N747">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="748" spans="6:14" x14ac:dyDescent="0.2">
@@ -11220,7 +11226,7 @@
       </c>
       <c r="N748">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="749" spans="6:14" x14ac:dyDescent="0.2">
@@ -11232,7 +11238,7 @@
       </c>
       <c r="N749">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="750" spans="6:14" x14ac:dyDescent="0.2">
@@ -11256,7 +11262,7 @@
       </c>
       <c r="N751">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="6:14" x14ac:dyDescent="0.2">
@@ -11268,7 +11274,7 @@
       </c>
       <c r="N752">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="6:14" x14ac:dyDescent="0.2">
@@ -11280,7 +11286,7 @@
       </c>
       <c r="N753">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="754" spans="6:14" x14ac:dyDescent="0.2">
@@ -11292,7 +11298,7 @@
       </c>
       <c r="N754">
         <f t="shared" ref="N754:N817" ca="1" si="13">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="6:14" x14ac:dyDescent="0.2">
@@ -11304,7 +11310,7 @@
       </c>
       <c r="N755">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="756" spans="6:14" x14ac:dyDescent="0.2">
@@ -11328,7 +11334,7 @@
       </c>
       <c r="N757">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="758" spans="6:14" x14ac:dyDescent="0.2">
@@ -11340,7 +11346,7 @@
       </c>
       <c r="N758">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="759" spans="6:14" x14ac:dyDescent="0.2">
@@ -11364,7 +11370,7 @@
       </c>
       <c r="N760">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="761" spans="6:14" x14ac:dyDescent="0.2">
@@ -11388,7 +11394,7 @@
       </c>
       <c r="N762">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="763" spans="6:14" x14ac:dyDescent="0.2">
@@ -11400,7 +11406,7 @@
       </c>
       <c r="N763">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="6:14" x14ac:dyDescent="0.2">
@@ -11412,7 +11418,7 @@
       </c>
       <c r="N764">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="6:14" x14ac:dyDescent="0.2">
@@ -11424,7 +11430,7 @@
       </c>
       <c r="N765">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="6:14" x14ac:dyDescent="0.2">
@@ -11436,7 +11442,7 @@
       </c>
       <c r="N766">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="6:14" x14ac:dyDescent="0.2">
@@ -11448,7 +11454,7 @@
       </c>
       <c r="N767">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="768" spans="6:14" x14ac:dyDescent="0.2">
@@ -11460,7 +11466,7 @@
       </c>
       <c r="N768">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="769" spans="6:14" x14ac:dyDescent="0.2">
@@ -11472,7 +11478,7 @@
       </c>
       <c r="N769">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="770" spans="6:14" x14ac:dyDescent="0.2">
@@ -11484,7 +11490,7 @@
       </c>
       <c r="N770">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="6:14" x14ac:dyDescent="0.2">
@@ -11496,7 +11502,7 @@
       </c>
       <c r="N771">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="6:14" x14ac:dyDescent="0.2">
@@ -11508,7 +11514,7 @@
       </c>
       <c r="N772">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="773" spans="6:14" x14ac:dyDescent="0.2">
@@ -11520,7 +11526,7 @@
       </c>
       <c r="N773">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="774" spans="6:14" x14ac:dyDescent="0.2">
@@ -11532,7 +11538,7 @@
       </c>
       <c r="N774">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="775" spans="6:14" x14ac:dyDescent="0.2">
@@ -11544,7 +11550,7 @@
       </c>
       <c r="N775">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="6:14" x14ac:dyDescent="0.2">
@@ -11556,7 +11562,7 @@
       </c>
       <c r="N776">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="777" spans="6:14" x14ac:dyDescent="0.2">
@@ -11568,7 +11574,7 @@
       </c>
       <c r="N777">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="778" spans="6:14" x14ac:dyDescent="0.2">
@@ -11580,7 +11586,7 @@
       </c>
       <c r="N778">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="779" spans="6:14" x14ac:dyDescent="0.2">
@@ -11592,7 +11598,7 @@
       </c>
       <c r="N779">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="6:14" x14ac:dyDescent="0.2">
@@ -11604,7 +11610,7 @@
       </c>
       <c r="N780">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="781" spans="6:14" x14ac:dyDescent="0.2">
@@ -11616,7 +11622,7 @@
       </c>
       <c r="N781">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="6:14" x14ac:dyDescent="0.2">
@@ -11628,7 +11634,7 @@
       </c>
       <c r="N782">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="6:14" x14ac:dyDescent="0.2">
@@ -11652,7 +11658,7 @@
       </c>
       <c r="N784">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="6:14" x14ac:dyDescent="0.2">
@@ -11664,7 +11670,7 @@
       </c>
       <c r="N785">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="786" spans="6:14" x14ac:dyDescent="0.2">
@@ -11676,7 +11682,7 @@
       </c>
       <c r="N786">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="787" spans="6:14" x14ac:dyDescent="0.2">
@@ -11688,7 +11694,7 @@
       </c>
       <c r="N787">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="788" spans="6:14" x14ac:dyDescent="0.2">
@@ -11712,7 +11718,7 @@
       </c>
       <c r="N789">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="790" spans="6:14" x14ac:dyDescent="0.2">
@@ -11724,7 +11730,7 @@
       </c>
       <c r="N790">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="791" spans="6:14" x14ac:dyDescent="0.2">
@@ -11736,7 +11742,7 @@
       </c>
       <c r="N791">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="792" spans="6:14" x14ac:dyDescent="0.2">
@@ -11748,7 +11754,7 @@
       </c>
       <c r="N792">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="793" spans="6:14" x14ac:dyDescent="0.2">
@@ -11760,7 +11766,7 @@
       </c>
       <c r="N793">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="6:14" x14ac:dyDescent="0.2">
@@ -11772,7 +11778,7 @@
       </c>
       <c r="N794">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="795" spans="6:14" x14ac:dyDescent="0.2">
@@ -11784,7 +11790,7 @@
       </c>
       <c r="N795">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="796" spans="6:14" x14ac:dyDescent="0.2">
@@ -11796,7 +11802,7 @@
       </c>
       <c r="N796">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="797" spans="6:14" x14ac:dyDescent="0.2">
@@ -11808,7 +11814,7 @@
       </c>
       <c r="N797">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="798" spans="6:14" x14ac:dyDescent="0.2">
@@ -11820,7 +11826,7 @@
       </c>
       <c r="N798">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="6:14" x14ac:dyDescent="0.2">
@@ -11832,7 +11838,7 @@
       </c>
       <c r="N799">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="800" spans="6:14" x14ac:dyDescent="0.2">
@@ -11844,7 +11850,7 @@
       </c>
       <c r="N800">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="801" spans="6:14" x14ac:dyDescent="0.2">
@@ -11856,7 +11862,7 @@
       </c>
       <c r="N801">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="802" spans="6:14" x14ac:dyDescent="0.2">
@@ -11868,7 +11874,7 @@
       </c>
       <c r="N802">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="803" spans="6:14" x14ac:dyDescent="0.2">
@@ -11880,7 +11886,7 @@
       </c>
       <c r="N803">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="6:14" x14ac:dyDescent="0.2">
@@ -11892,7 +11898,7 @@
       </c>
       <c r="N804">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="805" spans="6:14" x14ac:dyDescent="0.2">
@@ -11904,7 +11910,7 @@
       </c>
       <c r="N805">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="6:14" x14ac:dyDescent="0.2">
@@ -11916,7 +11922,7 @@
       </c>
       <c r="N806">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="807" spans="6:14" x14ac:dyDescent="0.2">
@@ -11928,7 +11934,7 @@
       </c>
       <c r="N807">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="6:14" x14ac:dyDescent="0.2">
@@ -11940,7 +11946,7 @@
       </c>
       <c r="N808">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="809" spans="6:14" x14ac:dyDescent="0.2">
@@ -11952,7 +11958,7 @@
       </c>
       <c r="N809">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="810" spans="6:14" x14ac:dyDescent="0.2">
@@ -11964,7 +11970,7 @@
       </c>
       <c r="N810">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="811" spans="6:14" x14ac:dyDescent="0.2">
@@ -11976,7 +11982,7 @@
       </c>
       <c r="N811">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="812" spans="6:14" x14ac:dyDescent="0.2">
@@ -12000,7 +12006,7 @@
       </c>
       <c r="N813">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="814" spans="6:14" x14ac:dyDescent="0.2">
@@ -12012,7 +12018,7 @@
       </c>
       <c r="N814">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="815" spans="6:14" x14ac:dyDescent="0.2">
@@ -12036,7 +12042,7 @@
       </c>
       <c r="N816">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="817" spans="6:14" x14ac:dyDescent="0.2">
@@ -12048,7 +12054,7 @@
       </c>
       <c r="N817">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="818" spans="6:14" x14ac:dyDescent="0.2">
@@ -12060,7 +12066,7 @@
       </c>
       <c r="N818">
         <f t="shared" ref="N818:N881" ca="1" si="14">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="6:14" x14ac:dyDescent="0.2">
@@ -12072,7 +12078,7 @@
       </c>
       <c r="N819">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="820" spans="6:14" x14ac:dyDescent="0.2">
@@ -12084,7 +12090,7 @@
       </c>
       <c r="N820">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="6:14" x14ac:dyDescent="0.2">
@@ -12096,7 +12102,7 @@
       </c>
       <c r="N821">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="6:14" x14ac:dyDescent="0.2">
@@ -12108,7 +12114,7 @@
       </c>
       <c r="N822">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="823" spans="6:14" x14ac:dyDescent="0.2">
@@ -12120,7 +12126,7 @@
       </c>
       <c r="N823">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="824" spans="6:14" x14ac:dyDescent="0.2">
@@ -12132,7 +12138,7 @@
       </c>
       <c r="N824">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="6:14" x14ac:dyDescent="0.2">
@@ -12144,7 +12150,7 @@
       </c>
       <c r="N825">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="6:14" x14ac:dyDescent="0.2">
@@ -12168,7 +12174,7 @@
       </c>
       <c r="N827">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="828" spans="6:14" x14ac:dyDescent="0.2">
@@ -12180,7 +12186,7 @@
       </c>
       <c r="N828">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="829" spans="6:14" x14ac:dyDescent="0.2">
@@ -12192,7 +12198,7 @@
       </c>
       <c r="N829">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="6:14" x14ac:dyDescent="0.2">
@@ -12204,7 +12210,7 @@
       </c>
       <c r="N830">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="831" spans="6:14" x14ac:dyDescent="0.2">
@@ -12228,7 +12234,7 @@
       </c>
       <c r="N832">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="6:14" x14ac:dyDescent="0.2">
@@ -12240,7 +12246,7 @@
       </c>
       <c r="N833">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="834" spans="6:14" x14ac:dyDescent="0.2">
@@ -12252,7 +12258,7 @@
       </c>
       <c r="N834">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="835" spans="6:14" x14ac:dyDescent="0.2">
@@ -12264,7 +12270,7 @@
       </c>
       <c r="N835">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="6:14" x14ac:dyDescent="0.2">
@@ -12276,7 +12282,7 @@
       </c>
       <c r="N836">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="6:14" x14ac:dyDescent="0.2">
@@ -12288,7 +12294,7 @@
       </c>
       <c r="N837">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="838" spans="6:14" x14ac:dyDescent="0.2">
@@ -12300,7 +12306,7 @@
       </c>
       <c r="N838">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="839" spans="6:14" x14ac:dyDescent="0.2">
@@ -12312,7 +12318,7 @@
       </c>
       <c r="N839">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="840" spans="6:14" x14ac:dyDescent="0.2">
@@ -12336,7 +12342,7 @@
       </c>
       <c r="N841">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="842" spans="6:14" x14ac:dyDescent="0.2">
@@ -12360,7 +12366,7 @@
       </c>
       <c r="N843">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="6:14" x14ac:dyDescent="0.2">
@@ -12372,7 +12378,7 @@
       </c>
       <c r="N844">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="6:14" x14ac:dyDescent="0.2">
@@ -12384,7 +12390,7 @@
       </c>
       <c r="N845">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="846" spans="6:14" x14ac:dyDescent="0.2">
@@ -12408,7 +12414,7 @@
       </c>
       <c r="N847">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="848" spans="6:14" x14ac:dyDescent="0.2">
@@ -12420,7 +12426,7 @@
       </c>
       <c r="N848">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="849" spans="6:14" x14ac:dyDescent="0.2">
@@ -12432,7 +12438,7 @@
       </c>
       <c r="N849">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="850" spans="6:14" x14ac:dyDescent="0.2">
@@ -12444,7 +12450,7 @@
       </c>
       <c r="N850">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="851" spans="6:14" x14ac:dyDescent="0.2">
@@ -12468,7 +12474,7 @@
       </c>
       <c r="N852">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="853" spans="6:14" x14ac:dyDescent="0.2">
@@ -12480,7 +12486,7 @@
       </c>
       <c r="N853">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="854" spans="6:14" x14ac:dyDescent="0.2">
@@ -12492,7 +12498,7 @@
       </c>
       <c r="N854">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="6:14" x14ac:dyDescent="0.2">
@@ -12504,7 +12510,7 @@
       </c>
       <c r="N855">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="856" spans="6:14" x14ac:dyDescent="0.2">
@@ -12516,7 +12522,7 @@
       </c>
       <c r="N856">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="857" spans="6:14" x14ac:dyDescent="0.2">
@@ -12528,7 +12534,7 @@
       </c>
       <c r="N857">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="858" spans="6:14" x14ac:dyDescent="0.2">
@@ -12540,7 +12546,7 @@
       </c>
       <c r="N858">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="859" spans="6:14" x14ac:dyDescent="0.2">
@@ -12552,7 +12558,7 @@
       </c>
       <c r="N859">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="6:14" x14ac:dyDescent="0.2">
@@ -12564,7 +12570,7 @@
       </c>
       <c r="N860">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="861" spans="6:14" x14ac:dyDescent="0.2">
@@ -12600,7 +12606,7 @@
       </c>
       <c r="N863">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="6:14" x14ac:dyDescent="0.2">
@@ -12612,7 +12618,7 @@
       </c>
       <c r="N864">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="6:14" x14ac:dyDescent="0.2">
@@ -12636,7 +12642,7 @@
       </c>
       <c r="N866">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="6:14" x14ac:dyDescent="0.2">
@@ -12648,7 +12654,7 @@
       </c>
       <c r="N867">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="868" spans="6:14" x14ac:dyDescent="0.2">
@@ -12672,7 +12678,7 @@
       </c>
       <c r="N869">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="870" spans="6:14" x14ac:dyDescent="0.2">
@@ -12684,7 +12690,7 @@
       </c>
       <c r="N870">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="6:14" x14ac:dyDescent="0.2">
@@ -12696,7 +12702,7 @@
       </c>
       <c r="N871">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="872" spans="6:14" x14ac:dyDescent="0.2">
@@ -12720,7 +12726,7 @@
       </c>
       <c r="N873">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="874" spans="6:14" x14ac:dyDescent="0.2">
@@ -12744,7 +12750,7 @@
       </c>
       <c r="N875">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="6:14" x14ac:dyDescent="0.2">
@@ -12756,7 +12762,7 @@
       </c>
       <c r="N876">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="6:14" x14ac:dyDescent="0.2">
@@ -12768,7 +12774,7 @@
       </c>
       <c r="N877">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="878" spans="6:14" x14ac:dyDescent="0.2">
@@ -12780,7 +12786,7 @@
       </c>
       <c r="N878">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="879" spans="6:14" x14ac:dyDescent="0.2">
@@ -12792,7 +12798,7 @@
       </c>
       <c r="N879">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="880" spans="6:14" x14ac:dyDescent="0.2">
@@ -12816,7 +12822,7 @@
       </c>
       <c r="N881">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="882" spans="6:14" x14ac:dyDescent="0.2">
@@ -12828,7 +12834,7 @@
       </c>
       <c r="N882">
         <f t="shared" ref="N882:N945" ca="1" si="15">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="883" spans="6:14" x14ac:dyDescent="0.2">
@@ -12840,7 +12846,7 @@
       </c>
       <c r="N883">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="884" spans="6:14" x14ac:dyDescent="0.2">
@@ -12852,7 +12858,7 @@
       </c>
       <c r="N884">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="885" spans="6:14" x14ac:dyDescent="0.2">
@@ -12864,7 +12870,7 @@
       </c>
       <c r="N885">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="886" spans="6:14" x14ac:dyDescent="0.2">
@@ -12876,7 +12882,7 @@
       </c>
       <c r="N886">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="887" spans="6:14" x14ac:dyDescent="0.2">
@@ -12888,7 +12894,7 @@
       </c>
       <c r="N887">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="6:14" x14ac:dyDescent="0.2">
@@ -12900,7 +12906,7 @@
       </c>
       <c r="N888">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="889" spans="6:14" x14ac:dyDescent="0.2">
@@ -12912,7 +12918,7 @@
       </c>
       <c r="N889">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="6:14" x14ac:dyDescent="0.2">
@@ -12924,7 +12930,7 @@
       </c>
       <c r="N890">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="891" spans="6:14" x14ac:dyDescent="0.2">
@@ -12936,7 +12942,7 @@
       </c>
       <c r="N891">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="6:14" x14ac:dyDescent="0.2">
@@ -12960,7 +12966,7 @@
       </c>
       <c r="N893">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="6:14" x14ac:dyDescent="0.2">
@@ -12972,7 +12978,7 @@
       </c>
       <c r="N894">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="895" spans="6:14" x14ac:dyDescent="0.2">
@@ -12984,7 +12990,7 @@
       </c>
       <c r="N895">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="896" spans="6:14" x14ac:dyDescent="0.2">
@@ -13020,7 +13026,7 @@
       </c>
       <c r="N898">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="6:14" x14ac:dyDescent="0.2">
@@ -13032,7 +13038,7 @@
       </c>
       <c r="N899">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="900" spans="6:14" x14ac:dyDescent="0.2">
@@ -13044,7 +13050,7 @@
       </c>
       <c r="N900">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="901" spans="6:14" x14ac:dyDescent="0.2">
@@ -13056,7 +13062,7 @@
       </c>
       <c r="N901">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="902" spans="6:14" x14ac:dyDescent="0.2">
@@ -13068,7 +13074,7 @@
       </c>
       <c r="N902">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="903" spans="6:14" x14ac:dyDescent="0.2">
@@ -13080,7 +13086,7 @@
       </c>
       <c r="N903">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="6:14" x14ac:dyDescent="0.2">
@@ -13092,7 +13098,7 @@
       </c>
       <c r="N904">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="905" spans="6:14" x14ac:dyDescent="0.2">
@@ -13116,7 +13122,7 @@
       </c>
       <c r="N906">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="6:14" x14ac:dyDescent="0.2">
@@ -13140,7 +13146,7 @@
       </c>
       <c r="N908">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="6:14" x14ac:dyDescent="0.2">
@@ -13152,7 +13158,7 @@
       </c>
       <c r="N909">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="6:14" x14ac:dyDescent="0.2">
@@ -13164,7 +13170,7 @@
       </c>
       <c r="N910">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="911" spans="6:14" x14ac:dyDescent="0.2">
@@ -13176,7 +13182,7 @@
       </c>
       <c r="N911">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="6:14" x14ac:dyDescent="0.2">
@@ -13188,7 +13194,7 @@
       </c>
       <c r="N912">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="913" spans="6:14" x14ac:dyDescent="0.2">
@@ -13200,7 +13206,7 @@
       </c>
       <c r="N913">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="6:14" x14ac:dyDescent="0.2">
@@ -13212,7 +13218,7 @@
       </c>
       <c r="N914">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="915" spans="6:14" x14ac:dyDescent="0.2">
@@ -13224,7 +13230,7 @@
       </c>
       <c r="N915">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="916" spans="6:14" x14ac:dyDescent="0.2">
@@ -13236,7 +13242,7 @@
       </c>
       <c r="N916">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="6:14" x14ac:dyDescent="0.2">
@@ -13248,7 +13254,7 @@
       </c>
       <c r="N917">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="918" spans="6:14" x14ac:dyDescent="0.2">
@@ -13260,7 +13266,7 @@
       </c>
       <c r="N918">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="6:14" x14ac:dyDescent="0.2">
@@ -13272,7 +13278,7 @@
       </c>
       <c r="N919">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="920" spans="6:14" x14ac:dyDescent="0.2">
@@ -13284,7 +13290,7 @@
       </c>
       <c r="N920">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="921" spans="6:14" x14ac:dyDescent="0.2">
@@ -13296,7 +13302,7 @@
       </c>
       <c r="N921">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="922" spans="6:14" x14ac:dyDescent="0.2">
@@ -13308,7 +13314,7 @@
       </c>
       <c r="N922">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="923" spans="6:14" x14ac:dyDescent="0.2">
@@ -13320,7 +13326,7 @@
       </c>
       <c r="N923">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="924" spans="6:14" x14ac:dyDescent="0.2">
@@ -13332,7 +13338,7 @@
       </c>
       <c r="N924">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="6:14" x14ac:dyDescent="0.2">
@@ -13344,7 +13350,7 @@
       </c>
       <c r="N925">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="926" spans="6:14" x14ac:dyDescent="0.2">
@@ -13356,7 +13362,7 @@
       </c>
       <c r="N926">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="927" spans="6:14" x14ac:dyDescent="0.2">
@@ -13368,7 +13374,7 @@
       </c>
       <c r="N927">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="928" spans="6:14" x14ac:dyDescent="0.2">
@@ -13380,7 +13386,7 @@
       </c>
       <c r="N928">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="929" spans="6:14" x14ac:dyDescent="0.2">
@@ -13392,7 +13398,7 @@
       </c>
       <c r="N929">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="930" spans="6:14" x14ac:dyDescent="0.2">
@@ -13404,7 +13410,7 @@
       </c>
       <c r="N930">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="931" spans="6:14" x14ac:dyDescent="0.2">
@@ -13440,7 +13446,7 @@
       </c>
       <c r="N933">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="934" spans="6:14" x14ac:dyDescent="0.2">
@@ -13452,7 +13458,7 @@
       </c>
       <c r="N934">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="6:14" x14ac:dyDescent="0.2">
@@ -13464,7 +13470,7 @@
       </c>
       <c r="N935">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="6:14" x14ac:dyDescent="0.2">
@@ -13476,7 +13482,7 @@
       </c>
       <c r="N936">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="937" spans="6:14" x14ac:dyDescent="0.2">
@@ -13488,7 +13494,7 @@
       </c>
       <c r="N937">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="938" spans="6:14" x14ac:dyDescent="0.2">
@@ -13500,7 +13506,7 @@
       </c>
       <c r="N938">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="939" spans="6:14" x14ac:dyDescent="0.2">
@@ -13512,7 +13518,7 @@
       </c>
       <c r="N939">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="940" spans="6:14" x14ac:dyDescent="0.2">
@@ -13524,7 +13530,7 @@
       </c>
       <c r="N940">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="6:14" x14ac:dyDescent="0.2">
@@ -13536,7 +13542,7 @@
       </c>
       <c r="N941">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="942" spans="6:14" x14ac:dyDescent="0.2">
@@ -13548,7 +13554,7 @@
       </c>
       <c r="N942">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="6:14" x14ac:dyDescent="0.2">
@@ -13560,7 +13566,7 @@
       </c>
       <c r="N943">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="944" spans="6:14" x14ac:dyDescent="0.2">
@@ -13572,7 +13578,7 @@
       </c>
       <c r="N944">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="945" spans="6:14" x14ac:dyDescent="0.2">
@@ -13584,7 +13590,7 @@
       </c>
       <c r="N945">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="946" spans="6:14" x14ac:dyDescent="0.2">
@@ -13596,7 +13602,7 @@
       </c>
       <c r="N946">
         <f t="shared" ref="N946:N1009" ca="1" si="16">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="6:14" x14ac:dyDescent="0.2">
@@ -13608,7 +13614,7 @@
       </c>
       <c r="N947">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="6:14" x14ac:dyDescent="0.2">
@@ -13632,7 +13638,7 @@
       </c>
       <c r="N949">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="6:14" x14ac:dyDescent="0.2">
@@ -13644,7 +13650,7 @@
       </c>
       <c r="N950">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="6:14" x14ac:dyDescent="0.2">
@@ -13656,7 +13662,7 @@
       </c>
       <c r="N951">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="6:14" x14ac:dyDescent="0.2">
@@ -13668,7 +13674,7 @@
       </c>
       <c r="N952">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="953" spans="6:14" x14ac:dyDescent="0.2">
@@ -13680,7 +13686,7 @@
       </c>
       <c r="N953">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="6:14" x14ac:dyDescent="0.2">
@@ -13692,7 +13698,7 @@
       </c>
       <c r="N954">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="955" spans="6:14" x14ac:dyDescent="0.2">
@@ -13704,7 +13710,7 @@
       </c>
       <c r="N955">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="6:14" x14ac:dyDescent="0.2">
@@ -13716,7 +13722,7 @@
       </c>
       <c r="N956">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="957" spans="6:14" x14ac:dyDescent="0.2">
@@ -13728,7 +13734,7 @@
       </c>
       <c r="N957">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="958" spans="6:14" x14ac:dyDescent="0.2">
@@ -13740,7 +13746,7 @@
       </c>
       <c r="N958">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="959" spans="6:14" x14ac:dyDescent="0.2">
@@ -13752,7 +13758,7 @@
       </c>
       <c r="N959">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="6:14" x14ac:dyDescent="0.2">
@@ -13764,7 +13770,7 @@
       </c>
       <c r="N960">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="961" spans="6:14" x14ac:dyDescent="0.2">
@@ -13776,7 +13782,7 @@
       </c>
       <c r="N961">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="962" spans="6:14" x14ac:dyDescent="0.2">
@@ -13800,7 +13806,7 @@
       </c>
       <c r="N963">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="6:14" x14ac:dyDescent="0.2">
@@ -13812,7 +13818,7 @@
       </c>
       <c r="N964">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="965" spans="6:14" x14ac:dyDescent="0.2">
@@ -13824,7 +13830,7 @@
       </c>
       <c r="N965">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="966" spans="6:14" x14ac:dyDescent="0.2">
@@ -13836,7 +13842,7 @@
       </c>
       <c r="N966">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="967" spans="6:14" x14ac:dyDescent="0.2">
@@ -13848,7 +13854,7 @@
       </c>
       <c r="N967">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="6:14" x14ac:dyDescent="0.2">
@@ -13860,7 +13866,7 @@
       </c>
       <c r="N968">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="6:14" x14ac:dyDescent="0.2">
@@ -13872,7 +13878,7 @@
       </c>
       <c r="N969">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="970" spans="6:14" x14ac:dyDescent="0.2">
@@ -13884,7 +13890,7 @@
       </c>
       <c r="N970">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="6:14" x14ac:dyDescent="0.2">
@@ -13896,7 +13902,7 @@
       </c>
       <c r="N971">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="972" spans="6:14" x14ac:dyDescent="0.2">
@@ -13908,7 +13914,7 @@
       </c>
       <c r="N972">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="6:14" x14ac:dyDescent="0.2">
@@ -13920,7 +13926,7 @@
       </c>
       <c r="N973">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="6:14" x14ac:dyDescent="0.2">
@@ -13932,7 +13938,7 @@
       </c>
       <c r="N974">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="975" spans="6:14" x14ac:dyDescent="0.2">
@@ -13944,7 +13950,7 @@
       </c>
       <c r="N975">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="976" spans="6:14" x14ac:dyDescent="0.2">
@@ -13968,7 +13974,7 @@
       </c>
       <c r="N977">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="978" spans="6:14" x14ac:dyDescent="0.2">
@@ -13992,7 +13998,7 @@
       </c>
       <c r="N979">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="6:14" x14ac:dyDescent="0.2">
@@ -14004,7 +14010,7 @@
       </c>
       <c r="N980">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="981" spans="6:14" x14ac:dyDescent="0.2">
@@ -14016,7 +14022,7 @@
       </c>
       <c r="N981">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="982" spans="6:14" x14ac:dyDescent="0.2">
@@ -14028,7 +14034,7 @@
       </c>
       <c r="N982">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="983" spans="6:14" x14ac:dyDescent="0.2">
@@ -14040,7 +14046,7 @@
       </c>
       <c r="N983">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="984" spans="6:14" x14ac:dyDescent="0.2">
@@ -14052,7 +14058,7 @@
       </c>
       <c r="N984">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="985" spans="6:14" x14ac:dyDescent="0.2">
@@ -14076,7 +14082,7 @@
       </c>
       <c r="N986">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="987" spans="6:14" x14ac:dyDescent="0.2">
@@ -14088,7 +14094,7 @@
       </c>
       <c r="N987">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="988" spans="6:14" x14ac:dyDescent="0.2">
@@ -14100,7 +14106,7 @@
       </c>
       <c r="N988">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="989" spans="6:14" x14ac:dyDescent="0.2">
@@ -14112,7 +14118,7 @@
       </c>
       <c r="N989">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="990" spans="6:14" x14ac:dyDescent="0.2">
@@ -14124,7 +14130,7 @@
       </c>
       <c r="N990">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="991" spans="6:14" x14ac:dyDescent="0.2">
@@ -14136,7 +14142,7 @@
       </c>
       <c r="N991">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="992" spans="6:14" x14ac:dyDescent="0.2">
@@ -14148,7 +14154,7 @@
       </c>
       <c r="N992">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="993" spans="6:14" x14ac:dyDescent="0.2">
@@ -14160,7 +14166,7 @@
       </c>
       <c r="N993">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="6:14" x14ac:dyDescent="0.2">
@@ -14172,7 +14178,7 @@
       </c>
       <c r="N994">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="6:14" x14ac:dyDescent="0.2">
@@ -14184,7 +14190,7 @@
       </c>
       <c r="N995">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="996" spans="6:14" x14ac:dyDescent="0.2">
@@ -14196,7 +14202,7 @@
       </c>
       <c r="N996">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="6:14" x14ac:dyDescent="0.2">
@@ -14220,7 +14226,7 @@
       </c>
       <c r="N998">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="6:14" x14ac:dyDescent="0.2">
@@ -14244,7 +14250,7 @@
       </c>
       <c r="N1000">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1001" spans="6:14" x14ac:dyDescent="0.2">
@@ -14256,7 +14262,7 @@
       </c>
       <c r="N1001">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1002" spans="6:14" x14ac:dyDescent="0.2">
@@ -14268,7 +14274,7 @@
       </c>
       <c r="N1002">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1003" spans="6:14" x14ac:dyDescent="0.2">
@@ -14280,7 +14286,7 @@
       </c>
       <c r="N1003">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1004" spans="6:14" x14ac:dyDescent="0.2">
@@ -14316,7 +14322,7 @@
       </c>
       <c r="N1006">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1007" spans="6:14" x14ac:dyDescent="0.2">
@@ -14340,7 +14346,7 @@
       </c>
       <c r="N1008">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1009" spans="6:14" x14ac:dyDescent="0.2">
@@ -14352,7 +14358,7 @@
       </c>
       <c r="N1009">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1010" spans="6:14" x14ac:dyDescent="0.2">
@@ -14364,7 +14370,7 @@
       </c>
       <c r="N1010">
         <f t="shared" ref="N1010:N1048" ca="1" si="17">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="6:14" x14ac:dyDescent="0.2">
@@ -14376,7 +14382,7 @@
       </c>
       <c r="N1011">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1012" spans="6:14" x14ac:dyDescent="0.2">
@@ -14388,7 +14394,7 @@
       </c>
       <c r="N1012">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1013" spans="6:14" x14ac:dyDescent="0.2">
@@ -14400,7 +14406,7 @@
       </c>
       <c r="N1013">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1014" spans="6:14" x14ac:dyDescent="0.2">
@@ -14424,7 +14430,7 @@
       </c>
       <c r="N1015">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="6:14" x14ac:dyDescent="0.2">
@@ -14436,7 +14442,7 @@
       </c>
       <c r="N1016">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1017" spans="6:14" x14ac:dyDescent="0.2">
@@ -14448,7 +14454,7 @@
       </c>
       <c r="N1017">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1018" spans="6:14" x14ac:dyDescent="0.2">
@@ -14460,7 +14466,7 @@
       </c>
       <c r="N1018">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1019" spans="6:14" x14ac:dyDescent="0.2">
@@ -14496,7 +14502,7 @@
       </c>
       <c r="N1021">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1022" spans="6:14" x14ac:dyDescent="0.2">
@@ -14508,7 +14514,7 @@
       </c>
       <c r="N1022">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="6:14" x14ac:dyDescent="0.2">
@@ -14520,7 +14526,7 @@
       </c>
       <c r="N1023">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="6:14" x14ac:dyDescent="0.2">
@@ -14532,7 +14538,7 @@
       </c>
       <c r="N1024">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1025" spans="6:14" x14ac:dyDescent="0.2">
@@ -14544,7 +14550,7 @@
       </c>
       <c r="N1025">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1026" spans="6:14" x14ac:dyDescent="0.2">
@@ -14556,7 +14562,7 @@
       </c>
       <c r="N1026">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="6:14" x14ac:dyDescent="0.2">
@@ -14580,7 +14586,7 @@
       </c>
       <c r="N1028">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1029" spans="6:14" x14ac:dyDescent="0.2">
@@ -14592,7 +14598,7 @@
       </c>
       <c r="N1029">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1030" spans="6:14" x14ac:dyDescent="0.2">
@@ -14604,7 +14610,7 @@
       </c>
       <c r="N1030">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1031" spans="6:14" x14ac:dyDescent="0.2">
@@ -14616,7 +14622,7 @@
       </c>
       <c r="N1031">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1032" spans="6:14" x14ac:dyDescent="0.2">
@@ -14664,7 +14670,7 @@
       </c>
       <c r="N1035">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1036" spans="6:14" x14ac:dyDescent="0.2">
@@ -14676,7 +14682,7 @@
       </c>
       <c r="N1036">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1037" spans="6:14" x14ac:dyDescent="0.2">
@@ -14688,7 +14694,7 @@
       </c>
       <c r="N1037">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1038" spans="6:14" x14ac:dyDescent="0.2">
@@ -14700,7 +14706,7 @@
       </c>
       <c r="N1038">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1039" spans="6:14" x14ac:dyDescent="0.2">
@@ -14724,7 +14730,7 @@
       </c>
       <c r="N1040">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1041" spans="6:14" x14ac:dyDescent="0.2">
@@ -14748,7 +14754,7 @@
       </c>
       <c r="N1042">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="6:14" x14ac:dyDescent="0.2">
@@ -14760,7 +14766,7 @@
       </c>
       <c r="N1043">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1044" spans="6:14" x14ac:dyDescent="0.2">
@@ -14772,7 +14778,7 @@
       </c>
       <c r="N1044">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1045" spans="6:14" x14ac:dyDescent="0.2">
@@ -14808,7 +14814,7 @@
       </c>
       <c r="N1047">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1048" spans="6:14" x14ac:dyDescent="0.2">
@@ -14820,7 +14826,7 @@
       </c>
       <c r="N1048">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
